--- a/case_study_analysis/make_clean_data/raw/PRIMARY Burden Pacific sardine case study.xlsx
+++ b/case_study_analysis/make_clean_data/raw/PRIMARY Burden Pacific sardine case study.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="809">
   <si>
     <t>Section 0 - Roll Call</t>
   </si>
@@ -5392,6 +5392,12 @@
 </t>
   </si>
   <si>
+    <t>adequate data is available</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
     <t>Large or stable population sizes confer resilience to climate change by avoiding Allee effects, buffering against variability, promoting genetic diversity and intact age structures, and increasing the chance of persistence during poor environmental regimes (Hamilton, 1967; Caughley, 1994).</t>
   </si>
   <si>
@@ -5401,9 +5407,6 @@
     <t>The age distribution of individuals within a population.</t>
   </si>
   <si>
-    <t>high</t>
-  </si>
-  <si>
     <t>An intact and well-distributed age structure (e.g., high numbers of large-bodied and fecund females) confers resilience to climate change by increasing the reproductive capacity of a population and its ability to recover from a disturbance event and/or environmental variability (Barneche et al., 2018; Hixon et al., 2014).</t>
   </si>
   <si>
@@ -5411,6 +5414,9 @@
   </si>
   <si>
     <t>Don't know</t>
+  </si>
+  <si>
+    <t>E - No data/information; no basis for expert judgement</t>
   </si>
   <si>
     <t>low</t>
@@ -5456,6 +5462,9 @@
     </r>
   </si>
   <si>
+    <t>Connectiity appears to be high due to the pelagic habits of the stock and migratory behavior, hower sub-population structure may not be well characterized genetically.  Similarly, finer scale oceanographic features that may reduce actual connectivity with respect to energy, material, and genetic exchange may not be well charaterized for coastal pelagic species.  In some countries (e.g. Philippines) sardines and herrings exist in farily well defined high density shoals that persist for years, while other aggregations persist for shorter time periods.  Whether this is a natural pattern or related to high levels of depletion is not known.</t>
+  </si>
+  <si>
     <t>Adult mobility</t>
   </si>
   <si>
@@ -5487,6 +5496,9 @@
   </si>
   <si>
     <t>The range of prey items that a population can exploit or the diversity of feeding strategies available.</t>
+  </si>
+  <si>
+    <t>adequate data are available</t>
   </si>
   <si>
     <t>A species with high dietary flexibility is resilient because it can exploit a larger range of resources over time and can opportunistically adapt to fluctuating prey availability (MacNally, 1995). Conversely, specialised species with narrow dietary niches, despite typically displaying specialised prey-capture adaptations and effective competitive and/or feeding strategies, have low resilience if a change in prey abundance or competitive exclusion occurs.</t>
@@ -5544,6 +5556,9 @@
     </r>
   </si>
   <si>
+    <t>Critical attribute.  Sardines switch with other species depending on climate regime and exhibit high volatility in abundance, suggesting flexibility in response to changes in environmental conditions</t>
+  </si>
+  <si>
     <t>Organization</t>
   </si>
   <si>
@@ -5606,6 +5621,9 @@
     </r>
   </si>
   <si>
+    <t>Habitat diversity in pelagic ecosystems is not well characterized, but it seems likely that diversity is higher than can is generally perceived because habitat characteristics tend to be less visible in pelagic systems (e.g., temperature, salinity, nutrient availability, convergence zones, etc) than in benthic habitats.</t>
+  </si>
+  <si>
     <t>The aggregate value of assets available to individuals, organizations, and communities that contribute to human well-being.</t>
   </si>
   <si>
@@ -5665,6 +5683,9 @@
 2 - Limited flexibility
 3 - Moderate flexibility
 4 - High flexibility</t>
+  </si>
+  <si>
+    <t>expert judgement, high confidence</t>
   </si>
   <si>
     <t xml:space="preserve">Flexibility and agility are preconditions for adaptable infrastructure (Chester &amp; Allenby, 2019). Flexible and agile infrastructure is able to withstand and respond to disruptions and meet changing demands (Chester &amp; Allenby, 2019; Hudson et al., 2012). </t>
@@ -6326,7 +6347,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -6479,6 +6500,11 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Times"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="&quot;Times New Roman&quot;"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -6747,7 +6773,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="145">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -6989,28 +7015,49 @@
     <xf borderId="0" fillId="9" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="18" fillId="6" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf borderId="18" fillId="9" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="18" fillId="6" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="6" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="6" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -7019,8 +7066,8 @@
     <xf borderId="0" fillId="4" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf borderId="18" fillId="7" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -7031,16 +7078,31 @@
     <xf borderId="0" fillId="8" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="7" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf borderId="14" fillId="4" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -7055,6 +7117,9 @@
     <xf borderId="14" fillId="8" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="18" fillId="8" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
@@ -7064,10 +7129,10 @@
     <xf borderId="18" fillId="4" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf borderId="14" fillId="4" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -25649,262 +25714,286 @@
       <c r="F7" s="102" t="s">
         <v>661</v>
       </c>
-      <c r="G7" s="103"/>
+      <c r="G7" s="103">
+        <v>2.0</v>
+      </c>
       <c r="H7" s="104"/>
       <c r="I7" s="104"/>
       <c r="J7" s="104"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="105" t="s">
+      <c r="K7" s="105" t="s">
         <v>662</v>
       </c>
-      <c r="N7" s="103"/>
+      <c r="L7" s="106" t="s">
+        <v>663</v>
+      </c>
+      <c r="M7" s="107" t="s">
+        <v>664</v>
+      </c>
+      <c r="N7" s="108"/>
       <c r="O7" s="102"/>
-      <c r="P7" s="104"/>
+      <c r="P7" s="109"/>
     </row>
     <row r="8">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="110" t="s">
         <v>400</v>
       </c>
-      <c r="B8" s="106" t="s">
+      <c r="B8" s="110" t="s">
         <v>658</v>
       </c>
-      <c r="C8" s="106" t="s">
+      <c r="C8" s="110" t="s">
         <v>469</v>
       </c>
-      <c r="D8" s="106" t="s">
-        <v>663</v>
-      </c>
-      <c r="E8" s="106" t="s">
-        <v>664</v>
-      </c>
-      <c r="F8" s="106" t="s">
+      <c r="D8" s="110" t="s">
+        <v>665</v>
+      </c>
+      <c r="E8" s="110" t="s">
+        <v>666</v>
+      </c>
+      <c r="F8" s="110" t="s">
         <v>472</v>
       </c>
-      <c r="G8" s="107">
+      <c r="G8" s="111">
         <v>1.0</v>
       </c>
       <c r="H8" s="94"/>
       <c r="I8" s="94"/>
       <c r="J8" s="94"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="106" t="s">
-        <v>665</v>
-      </c>
-      <c r="M8" s="108" t="s">
-        <v>666</v>
-      </c>
-      <c r="N8" s="103"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="106"/>
+      <c r="K8" s="112" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" s="113" t="s">
+        <v>663</v>
+      </c>
+      <c r="M8" s="114" t="s">
+        <v>667</v>
+      </c>
+      <c r="N8" s="108"/>
+      <c r="O8" s="110"/>
+      <c r="P8" s="110"/>
     </row>
     <row r="9">
-      <c r="A9" s="106" t="s">
+      <c r="A9" s="110" t="s">
         <v>400</v>
       </c>
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="110" t="s">
         <v>658</v>
       </c>
-      <c r="C9" s="106" t="s">
+      <c r="C9" s="110" t="s">
         <v>460</v>
       </c>
-      <c r="D9" s="109" t="s">
+      <c r="D9" s="115" t="s">
         <v>461</v>
       </c>
-      <c r="E9" s="106" t="s">
-        <v>667</v>
-      </c>
-      <c r="F9" s="106" t="s">
+      <c r="E9" s="110" t="s">
+        <v>668</v>
+      </c>
+      <c r="F9" s="110" t="s">
         <v>454</v>
       </c>
-      <c r="G9" s="103"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="110" t="s">
-        <v>668</v>
-      </c>
-      <c r="J9" s="111"/>
-      <c r="K9" s="103"/>
-      <c r="L9" s="106" t="s">
+      <c r="G9" s="116">
+        <v>2.0</v>
+      </c>
+      <c r="H9" s="93"/>
+      <c r="I9" s="117" t="s">
         <v>669</v>
       </c>
-      <c r="M9" s="108" t="s">
+      <c r="J9" s="118"/>
+      <c r="K9" s="112" t="s">
         <v>670</v>
       </c>
-      <c r="N9" s="103"/>
-      <c r="O9" s="112"/>
-      <c r="P9" s="112"/>
+      <c r="L9" s="113" t="s">
+        <v>671</v>
+      </c>
+      <c r="M9" s="114" t="s">
+        <v>672</v>
+      </c>
+      <c r="N9" s="108"/>
+      <c r="O9" s="119"/>
+      <c r="P9" s="119"/>
     </row>
     <row r="10">
-      <c r="A10" s="106" t="s">
+      <c r="A10" s="110" t="s">
         <v>400</v>
       </c>
-      <c r="B10" s="106" t="s">
+      <c r="B10" s="110" t="s">
         <v>658</v>
       </c>
-      <c r="C10" s="106" t="s">
+      <c r="C10" s="110" t="s">
         <v>456</v>
       </c>
-      <c r="D10" s="106" t="s">
+      <c r="D10" s="110" t="s">
         <v>457</v>
       </c>
-      <c r="E10" s="106" t="s">
+      <c r="E10" s="110" t="s">
+        <v>673</v>
+      </c>
+      <c r="F10" s="110" t="s">
+        <v>454</v>
+      </c>
+      <c r="G10" s="120">
+        <v>2.0</v>
+      </c>
+      <c r="H10" s="93"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="112" t="s">
+        <v>351</v>
+      </c>
+      <c r="L10" s="113" t="s">
         <v>671</v>
       </c>
-      <c r="F10" s="106" t="s">
-        <v>454</v>
-      </c>
-      <c r="G10" s="107">
+      <c r="M10" s="112" t="s">
+        <v>674</v>
+      </c>
+      <c r="N10" s="108"/>
+      <c r="O10" s="119"/>
+      <c r="P10" s="119"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="121" t="s">
+        <v>400</v>
+      </c>
+      <c r="B11" s="121" t="s">
+        <v>658</v>
+      </c>
+      <c r="C11" s="121"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="123" t="s">
+        <v>675</v>
+      </c>
+      <c r="F11" s="122" t="s">
+        <v>422</v>
+      </c>
+      <c r="G11" s="122"/>
+      <c r="H11" s="124" t="s">
+        <v>676</v>
+      </c>
+      <c r="I11" s="122"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="125" t="s">
+        <v>198</v>
+      </c>
+      <c r="L11" s="122"/>
+      <c r="M11" s="122"/>
+      <c r="N11" s="122"/>
+      <c r="O11" s="121"/>
+      <c r="P11" s="122"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="110" t="s">
+        <v>400</v>
+      </c>
+      <c r="B12" s="110" t="s">
+        <v>420</v>
+      </c>
+      <c r="C12" s="110" t="s">
+        <v>442</v>
+      </c>
+      <c r="D12" s="110" t="s">
+        <v>677</v>
+      </c>
+      <c r="E12" s="110" t="s">
+        <v>678</v>
+      </c>
+      <c r="F12" s="115" t="s">
+        <v>445</v>
+      </c>
+      <c r="G12" s="111">
+        <v>3.0</v>
+      </c>
+      <c r="H12" s="94"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="L12" s="117" t="s">
+        <v>663</v>
+      </c>
+      <c r="M12" s="110" t="s">
+        <v>679</v>
+      </c>
+      <c r="N12" s="108"/>
+      <c r="O12" s="119"/>
+      <c r="P12" s="119"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="110" t="s">
+        <v>400</v>
+      </c>
+      <c r="B13" s="110" t="s">
+        <v>420</v>
+      </c>
+      <c r="C13" s="110" t="s">
+        <v>438</v>
+      </c>
+      <c r="D13" s="110" t="s">
+        <v>680</v>
+      </c>
+      <c r="E13" s="110" t="s">
+        <v>681</v>
+      </c>
+      <c r="F13" s="110" t="s">
+        <v>405</v>
+      </c>
+      <c r="G13" s="111">
+        <v>3.0</v>
+      </c>
+      <c r="H13" s="94"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="112" t="s">
+        <v>96</v>
+      </c>
+      <c r="L13" s="117" t="s">
+        <v>663</v>
+      </c>
+      <c r="M13" s="114" t="s">
+        <v>682</v>
+      </c>
+      <c r="N13" s="108"/>
+      <c r="O13" s="119"/>
+      <c r="P13" s="119"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="110" t="s">
+        <v>400</v>
+      </c>
+      <c r="B14" s="110" t="s">
+        <v>420</v>
+      </c>
+      <c r="C14" s="110" t="s">
+        <v>402</v>
+      </c>
+      <c r="D14" s="110" t="s">
+        <v>683</v>
+      </c>
+      <c r="E14" s="110" t="s">
+        <v>684</v>
+      </c>
+      <c r="F14" s="110" t="s">
+        <v>405</v>
+      </c>
+      <c r="G14" s="111">
         <v>2.0</v>
       </c>
-      <c r="H10" s="94"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="103"/>
-      <c r="L10" s="106" t="s">
-        <v>669</v>
-      </c>
-      <c r="M10" s="113" t="s">
-        <v>672</v>
-      </c>
-      <c r="N10" s="103"/>
-      <c r="O10" s="112"/>
-      <c r="P10" s="112"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="114" t="s">
-        <v>400</v>
-      </c>
-      <c r="B11" s="114" t="s">
-        <v>658</v>
-      </c>
-      <c r="C11" s="114"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="116" t="s">
-        <v>673</v>
-      </c>
-      <c r="F11" s="115" t="s">
-        <v>422</v>
-      </c>
-      <c r="G11" s="115"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="115"/>
-      <c r="K11" s="114"/>
-      <c r="L11" s="115"/>
-      <c r="M11" s="115"/>
-      <c r="N11" s="115"/>
-      <c r="O11" s="114"/>
-      <c r="P11" s="115"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="106" t="s">
-        <v>400</v>
-      </c>
-      <c r="B12" s="106" t="s">
-        <v>420</v>
-      </c>
-      <c r="C12" s="106" t="s">
-        <v>442</v>
-      </c>
-      <c r="D12" s="106" t="s">
-        <v>674</v>
-      </c>
-      <c r="E12" s="106" t="s">
-        <v>675</v>
-      </c>
-      <c r="F12" s="109" t="s">
-        <v>445</v>
-      </c>
-      <c r="G12" s="107">
-        <v>3.0</v>
-      </c>
-      <c r="H12" s="94"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="103"/>
-      <c r="L12" s="110" t="s">
-        <v>665</v>
-      </c>
-      <c r="M12" s="106" t="s">
-        <v>676</v>
-      </c>
-      <c r="N12" s="103"/>
-      <c r="O12" s="112"/>
-      <c r="P12" s="112"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="106" t="s">
-        <v>400</v>
-      </c>
-      <c r="B13" s="106" t="s">
-        <v>420</v>
-      </c>
-      <c r="C13" s="106" t="s">
-        <v>438</v>
-      </c>
-      <c r="D13" s="106" t="s">
-        <v>677</v>
-      </c>
-      <c r="E13" s="106" t="s">
-        <v>678</v>
-      </c>
-      <c r="F13" s="106" t="s">
-        <v>405</v>
-      </c>
-      <c r="G13" s="107">
-        <v>3.0</v>
-      </c>
-      <c r="H13" s="94"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="110" t="s">
-        <v>665</v>
-      </c>
-      <c r="M13" s="108" t="s">
-        <v>679</v>
-      </c>
-      <c r="N13" s="103"/>
-      <c r="O13" s="112"/>
-      <c r="P13" s="112"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="106" t="s">
-        <v>400</v>
-      </c>
-      <c r="B14" s="106" t="s">
-        <v>420</v>
-      </c>
-      <c r="C14" s="106" t="s">
-        <v>402</v>
-      </c>
-      <c r="D14" s="106" t="s">
-        <v>680</v>
-      </c>
-      <c r="E14" s="106" t="s">
-        <v>681</v>
-      </c>
-      <c r="F14" s="106" t="s">
-        <v>405</v>
-      </c>
-      <c r="G14" s="107">
-        <v>2.0</v>
-      </c>
-      <c r="H14" s="77" t="s">
+      <c r="H14" s="112" t="s">
         <v>406</v>
       </c>
-      <c r="I14" s="111"/>
-      <c r="J14" s="111"/>
-      <c r="K14" s="103"/>
-      <c r="L14" s="106" t="s">
-        <v>665</v>
-      </c>
-      <c r="M14" s="106" t="s">
-        <v>682</v>
-      </c>
-      <c r="N14" s="103"/>
-      <c r="O14" s="112"/>
-      <c r="P14" s="112"/>
+      <c r="I14" s="118"/>
+      <c r="J14" s="118"/>
+      <c r="K14" s="113" t="s">
+        <v>96</v>
+      </c>
+      <c r="L14" s="113" t="s">
+        <v>663</v>
+      </c>
+      <c r="M14" s="110" t="s">
+        <v>685</v>
+      </c>
+      <c r="N14" s="108"/>
+      <c r="O14" s="119"/>
+      <c r="P14" s="119"/>
     </row>
     <row r="15">
       <c r="A15" s="102" t="s">
@@ -25915,396 +26004,426 @@
       </c>
       <c r="C15" s="102"/>
       <c r="D15" s="102" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="E15" s="102" t="s">
-        <v>684</v>
-      </c>
-      <c r="F15" s="104" t="s">
+        <v>687</v>
+      </c>
+      <c r="F15" s="109" t="s">
         <v>454</v>
       </c>
-      <c r="G15" s="103"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="104"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="103"/>
+      <c r="G15" s="126">
+        <v>2.0</v>
+      </c>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="127" t="s">
+        <v>688</v>
+      </c>
+      <c r="L15" s="108" t="s">
+        <v>663</v>
+      </c>
       <c r="M15" s="102" t="s">
-        <v>685</v>
-      </c>
-      <c r="N15" s="104"/>
+        <v>689</v>
+      </c>
+      <c r="N15" s="109"/>
       <c r="O15" s="102"/>
-      <c r="P15" s="104"/>
+      <c r="P15" s="109"/>
     </row>
     <row r="16">
-      <c r="A16" s="106" t="s">
+      <c r="A16" s="110" t="s">
         <v>400</v>
       </c>
-      <c r="B16" s="106" t="s">
+      <c r="B16" s="110" t="s">
         <v>420</v>
       </c>
-      <c r="C16" s="106" t="s">
+      <c r="C16" s="110" t="s">
         <v>451</v>
       </c>
-      <c r="D16" s="106" t="s">
+      <c r="D16" s="110" t="s">
         <v>452</v>
       </c>
-      <c r="E16" s="106" t="s">
-        <v>686</v>
-      </c>
-      <c r="F16" s="109" t="s">
+      <c r="E16" s="110" t="s">
+        <v>690</v>
+      </c>
+      <c r="F16" s="115" t="s">
         <v>454</v>
       </c>
-      <c r="G16" s="107">
+      <c r="G16" s="111">
         <v>2.0</v>
       </c>
-      <c r="H16" s="111"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="111"/>
-      <c r="K16" s="103"/>
-      <c r="L16" s="110" t="s">
-        <v>669</v>
-      </c>
-      <c r="M16" s="108" t="s">
-        <v>687</v>
-      </c>
-      <c r="N16" s="103"/>
-      <c r="O16" s="112"/>
-      <c r="P16" s="112"/>
+      <c r="H16" s="118"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="112" t="s">
+        <v>351</v>
+      </c>
+      <c r="L16" s="117" t="s">
+        <v>671</v>
+      </c>
+      <c r="M16" s="114" t="s">
+        <v>691</v>
+      </c>
+      <c r="N16" s="108"/>
+      <c r="O16" s="119"/>
+      <c r="P16" s="119"/>
     </row>
     <row r="17">
-      <c r="A17" s="106" t="s">
+      <c r="A17" s="110" t="s">
         <v>400</v>
       </c>
-      <c r="B17" s="106" t="s">
+      <c r="B17" s="110" t="s">
         <v>420</v>
       </c>
-      <c r="C17" s="106" t="s">
+      <c r="C17" s="110" t="s">
         <v>409</v>
       </c>
-      <c r="D17" s="106" t="s">
+      <c r="D17" s="110" t="s">
         <v>410</v>
       </c>
-      <c r="E17" s="106" t="s">
-        <v>688</v>
-      </c>
-      <c r="F17" s="109" t="s">
+      <c r="E17" s="110" t="s">
+        <v>692</v>
+      </c>
+      <c r="F17" s="115" t="s">
         <v>405</v>
       </c>
-      <c r="G17" s="107">
+      <c r="G17" s="111">
         <v>2.0</v>
       </c>
-      <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="111"/>
-      <c r="K17" s="103"/>
-      <c r="L17" s="106" t="s">
-        <v>669</v>
-      </c>
-      <c r="M17" s="117" t="s">
-        <v>689</v>
-      </c>
-      <c r="N17" s="103"/>
-      <c r="O17" s="112"/>
-      <c r="P17" s="112"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="118"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="113" t="s">
+        <v>198</v>
+      </c>
+      <c r="L17" s="113" t="s">
+        <v>671</v>
+      </c>
+      <c r="M17" s="128" t="s">
+        <v>693</v>
+      </c>
+      <c r="N17" s="108"/>
+      <c r="O17" s="119"/>
+      <c r="P17" s="119"/>
     </row>
     <row r="18">
-      <c r="A18" s="106" t="s">
+      <c r="A18" s="110" t="s">
         <v>400</v>
       </c>
-      <c r="B18" s="106" t="s">
+      <c r="B18" s="110" t="s">
         <v>420</v>
       </c>
-      <c r="C18" s="106" t="s">
+      <c r="C18" s="110" t="s">
         <v>414</v>
       </c>
-      <c r="D18" s="106" t="s">
+      <c r="D18" s="110" t="s">
         <v>415</v>
       </c>
-      <c r="E18" s="106" t="s">
-        <v>690</v>
-      </c>
-      <c r="F18" s="109" t="s">
+      <c r="E18" s="110" t="s">
+        <v>694</v>
+      </c>
+      <c r="F18" s="115" t="s">
         <v>405</v>
       </c>
-      <c r="G18" s="107">
+      <c r="G18" s="111">
         <v>3.0</v>
       </c>
-      <c r="H18" s="111"/>
-      <c r="I18" s="111"/>
-      <c r="J18" s="111"/>
-      <c r="K18" s="103"/>
-      <c r="L18" s="106" t="s">
-        <v>691</v>
-      </c>
-      <c r="M18" s="108" t="s">
-        <v>692</v>
-      </c>
-      <c r="N18" s="103"/>
-      <c r="O18" s="112"/>
-      <c r="P18" s="112"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="113" t="s">
+        <v>198</v>
+      </c>
+      <c r="L18" s="113" t="s">
+        <v>695</v>
+      </c>
+      <c r="M18" s="114" t="s">
+        <v>696</v>
+      </c>
+      <c r="N18" s="108"/>
+      <c r="O18" s="119"/>
+      <c r="P18" s="119"/>
     </row>
     <row r="19">
-      <c r="A19" s="114" t="s">
+      <c r="A19" s="121" t="s">
         <v>400</v>
       </c>
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="121" t="s">
         <v>420</v>
       </c>
-      <c r="C19" s="114"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="116" t="s">
-        <v>693</v>
-      </c>
-      <c r="F19" s="115" t="s">
+      <c r="C19" s="121"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="123" t="s">
+        <v>697</v>
+      </c>
+      <c r="F19" s="122" t="s">
         <v>422</v>
       </c>
-      <c r="G19" s="115"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="115"/>
-      <c r="K19" s="114"/>
-      <c r="L19" s="115"/>
-      <c r="M19" s="115"/>
-      <c r="N19" s="115"/>
-      <c r="O19" s="114"/>
-      <c r="P19" s="115"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="124" t="s">
+        <v>698</v>
+      </c>
+      <c r="I19" s="122"/>
+      <c r="J19" s="122"/>
+      <c r="K19" s="125" t="s">
+        <v>96</v>
+      </c>
+      <c r="L19" s="122"/>
+      <c r="M19" s="122"/>
+      <c r="N19" s="122"/>
+      <c r="O19" s="121"/>
+      <c r="P19" s="122"/>
     </row>
     <row r="20">
-      <c r="A20" s="106" t="s">
+      <c r="A20" s="110" t="s">
         <v>400</v>
       </c>
-      <c r="B20" s="106" t="s">
-        <v>694</v>
-      </c>
-      <c r="C20" s="106" t="s">
+      <c r="B20" s="110" t="s">
+        <v>699</v>
+      </c>
+      <c r="C20" s="110" t="s">
         <v>429</v>
       </c>
-      <c r="D20" s="118" t="s">
+      <c r="D20" s="129" t="s">
+        <v>700</v>
+      </c>
+      <c r="E20" s="110" t="s">
+        <v>701</v>
+      </c>
+      <c r="F20" s="110" t="s">
+        <v>427</v>
+      </c>
+      <c r="G20" s="111">
+        <v>4.0</v>
+      </c>
+      <c r="H20" s="94"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="L20" s="117" t="s">
+        <v>663</v>
+      </c>
+      <c r="M20" s="114" t="s">
+        <v>702</v>
+      </c>
+      <c r="N20" s="108"/>
+      <c r="O20" s="119"/>
+      <c r="P20" s="119"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="110" t="s">
+        <v>400</v>
+      </c>
+      <c r="B21" s="110" t="s">
+        <v>699</v>
+      </c>
+      <c r="C21" s="110" t="s">
+        <v>433</v>
+      </c>
+      <c r="D21" s="129" t="s">
+        <v>703</v>
+      </c>
+      <c r="E21" s="110" t="s">
+        <v>704</v>
+      </c>
+      <c r="F21" s="110" t="s">
+        <v>436</v>
+      </c>
+      <c r="G21" s="111">
+        <v>2.0</v>
+      </c>
+      <c r="H21" s="94"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="112" t="s">
+        <v>344</v>
+      </c>
+      <c r="L21" s="130" t="s">
+        <v>671</v>
+      </c>
+      <c r="M21" s="114" t="s">
+        <v>705</v>
+      </c>
+      <c r="N21" s="108"/>
+      <c r="O21" s="119"/>
+      <c r="P21" s="119"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="121" t="s">
+        <v>400</v>
+      </c>
+      <c r="B22" s="121" t="s">
+        <v>699</v>
+      </c>
+      <c r="C22" s="121"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="123" t="s">
+        <v>706</v>
+      </c>
+      <c r="F22" s="122" t="s">
+        <v>422</v>
+      </c>
+      <c r="G22" s="122"/>
+      <c r="H22" s="124" t="s">
+        <v>707</v>
+      </c>
+      <c r="I22" s="122"/>
+      <c r="J22" s="122"/>
+      <c r="K22" s="125" t="s">
+        <v>344</v>
+      </c>
+      <c r="L22" s="122"/>
+      <c r="M22" s="122"/>
+      <c r="N22" s="122"/>
+      <c r="O22" s="121"/>
+      <c r="P22" s="122"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="110" t="s">
+        <v>487</v>
+      </c>
+      <c r="B23" s="110" t="s">
+        <v>658</v>
+      </c>
+      <c r="C23" s="110" t="s">
+        <v>542</v>
+      </c>
+      <c r="D23" s="110" t="s">
+        <v>543</v>
+      </c>
+      <c r="E23" s="110" t="s">
+        <v>708</v>
+      </c>
+      <c r="F23" s="110" t="s">
+        <v>545</v>
+      </c>
+      <c r="G23" s="111">
+        <v>3.0</v>
+      </c>
+      <c r="H23" s="94"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="112" t="s">
+        <v>344</v>
+      </c>
+      <c r="L23" s="117" t="s">
         <v>695</v>
       </c>
-      <c r="E20" s="106" t="s">
-        <v>696</v>
-      </c>
-      <c r="F20" s="106" t="s">
-        <v>427</v>
-      </c>
-      <c r="G20" s="107">
-        <v>4.0</v>
-      </c>
-      <c r="H20" s="94"/>
-      <c r="I20" s="111"/>
-      <c r="J20" s="111"/>
-      <c r="K20" s="103"/>
-      <c r="L20" s="110" t="s">
-        <v>665</v>
-      </c>
-      <c r="M20" s="108" t="s">
-        <v>697</v>
-      </c>
-      <c r="N20" s="103"/>
-      <c r="O20" s="112"/>
-      <c r="P20" s="112"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="106" t="s">
-        <v>400</v>
-      </c>
-      <c r="B21" s="106" t="s">
-        <v>694</v>
-      </c>
-      <c r="C21" s="106" t="s">
-        <v>433</v>
-      </c>
-      <c r="D21" s="118" t="s">
-        <v>698</v>
-      </c>
-      <c r="E21" s="106" t="s">
-        <v>699</v>
-      </c>
-      <c r="F21" s="106" t="s">
-        <v>436</v>
-      </c>
-      <c r="G21" s="107">
-        <v>2.0</v>
-      </c>
-      <c r="H21" s="94"/>
-      <c r="I21" s="111"/>
-      <c r="J21" s="111"/>
-      <c r="K21" s="103"/>
-      <c r="L21" s="109" t="s">
-        <v>669</v>
-      </c>
-      <c r="M21" s="108" t="s">
-        <v>700</v>
-      </c>
-      <c r="N21" s="103"/>
-      <c r="O21" s="112"/>
-      <c r="P21" s="112"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="114" t="s">
-        <v>400</v>
-      </c>
-      <c r="B22" s="114" t="s">
-        <v>694</v>
-      </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116" t="s">
-        <v>701</v>
-      </c>
-      <c r="F22" s="115" t="s">
-        <v>422</v>
-      </c>
-      <c r="G22" s="115"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="115"/>
-      <c r="K22" s="114"/>
-      <c r="L22" s="115"/>
-      <c r="M22" s="115"/>
-      <c r="N22" s="115"/>
-      <c r="O22" s="114"/>
-      <c r="P22" s="115"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="106" t="s">
-        <v>487</v>
-      </c>
-      <c r="B23" s="106" t="s">
-        <v>658</v>
-      </c>
-      <c r="C23" s="106" t="s">
-        <v>542</v>
-      </c>
-      <c r="D23" s="106" t="s">
-        <v>543</v>
-      </c>
-      <c r="E23" s="106" t="s">
-        <v>702</v>
-      </c>
-      <c r="F23" s="106" t="s">
-        <v>545</v>
-      </c>
-      <c r="G23" s="107">
-        <v>3.0</v>
-      </c>
-      <c r="H23" s="94"/>
-      <c r="I23" s="111"/>
-      <c r="J23" s="111"/>
-      <c r="K23" s="103"/>
-      <c r="L23" s="110" t="s">
-        <v>691</v>
-      </c>
-      <c r="M23" s="117" t="s">
-        <v>703</v>
-      </c>
-      <c r="N23" s="103"/>
-      <c r="O23" s="112"/>
+      <c r="M23" s="128" t="s">
+        <v>709</v>
+      </c>
+      <c r="N23" s="108"/>
+      <c r="O23" s="119"/>
       <c r="P23" s="90" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="106" t="s">
+      <c r="A24" s="110" t="s">
         <v>487</v>
       </c>
-      <c r="B24" s="106" t="s">
+      <c r="B24" s="110" t="s">
         <v>658</v>
       </c>
-      <c r="C24" s="106" t="s">
+      <c r="C24" s="110" t="s">
         <v>493</v>
       </c>
-      <c r="D24" s="106" t="s">
+      <c r="D24" s="110" t="s">
         <v>494</v>
       </c>
-      <c r="E24" s="106" t="s">
-        <v>704</v>
-      </c>
-      <c r="F24" s="106" t="s">
+      <c r="E24" s="110" t="s">
+        <v>710</v>
+      </c>
+      <c r="F24" s="110" t="s">
         <v>496</v>
       </c>
-      <c r="G24" s="107">
+      <c r="G24" s="111">
         <v>4.0</v>
       </c>
       <c r="H24" s="94"/>
-      <c r="I24" s="111"/>
-      <c r="J24" s="111"/>
-      <c r="K24" s="103"/>
-      <c r="L24" s="109" t="s">
-        <v>665</v>
-      </c>
-      <c r="M24" s="108" t="s">
-        <v>705</v>
-      </c>
-      <c r="N24" s="103"/>
-      <c r="O24" s="112"/>
-      <c r="P24" s="119"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="112" t="s">
+        <v>96</v>
+      </c>
+      <c r="L24" s="130" t="s">
+        <v>663</v>
+      </c>
+      <c r="M24" s="114" t="s">
+        <v>711</v>
+      </c>
+      <c r="N24" s="108"/>
+      <c r="O24" s="119"/>
+      <c r="P24" s="131"/>
     </row>
     <row r="25">
-      <c r="A25" s="106" t="s">
+      <c r="A25" s="110" t="s">
         <v>487</v>
       </c>
-      <c r="B25" s="106" t="s">
+      <c r="B25" s="110" t="s">
         <v>658</v>
       </c>
-      <c r="C25" s="106" t="s">
+      <c r="C25" s="110" t="s">
         <v>489</v>
       </c>
-      <c r="D25" s="106" t="s">
+      <c r="D25" s="110" t="s">
         <v>490</v>
       </c>
-      <c r="E25" s="106" t="s">
-        <v>706</v>
-      </c>
-      <c r="F25" s="106" t="s">
+      <c r="E25" s="110" t="s">
+        <v>712</v>
+      </c>
+      <c r="F25" s="110" t="s">
         <v>454</v>
       </c>
-      <c r="G25" s="107">
+      <c r="G25" s="111">
         <v>2.0</v>
       </c>
       <c r="H25" s="94"/>
-      <c r="I25" s="110" t="s">
-        <v>668</v>
-      </c>
-      <c r="J25" s="111"/>
-      <c r="K25" s="103"/>
-      <c r="L25" s="110" t="s">
+      <c r="I25" s="117" t="s">
         <v>669</v>
       </c>
-      <c r="M25" s="108" t="s">
-        <v>707</v>
-      </c>
-      <c r="N25" s="103"/>
-      <c r="O25" s="112"/>
-      <c r="P25" s="112"/>
+      <c r="J25" s="118"/>
+      <c r="K25" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="L25" s="117" t="s">
+        <v>671</v>
+      </c>
+      <c r="M25" s="114" t="s">
+        <v>713</v>
+      </c>
+      <c r="N25" s="108"/>
+      <c r="O25" s="119"/>
+      <c r="P25" s="119"/>
     </row>
     <row r="26">
-      <c r="A26" s="114" t="s">
+      <c r="A26" s="121" t="s">
         <v>487</v>
       </c>
-      <c r="B26" s="115" t="s">
+      <c r="B26" s="122" t="s">
         <v>658</v>
       </c>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="116" t="s">
-        <v>708</v>
-      </c>
-      <c r="F26" s="115" t="s">
+      <c r="C26" s="122"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="123" t="s">
+        <v>714</v>
+      </c>
+      <c r="F26" s="122" t="s">
         <v>422</v>
       </c>
-      <c r="G26" s="115"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="115"/>
-      <c r="K26" s="115"/>
-      <c r="L26" s="115"/>
-      <c r="M26" s="115"/>
-      <c r="N26" s="115"/>
-      <c r="O26" s="115"/>
-      <c r="P26" s="115"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="122"/>
+      <c r="J26" s="122"/>
+      <c r="K26" s="122"/>
+      <c r="L26" s="122"/>
+      <c r="M26" s="122"/>
+      <c r="N26" s="122"/>
+      <c r="O26" s="122"/>
+      <c r="P26" s="122"/>
     </row>
     <row r="27">
       <c r="A27" s="102" t="s">
@@ -26315,1004 +26434,1056 @@
       </c>
       <c r="C27" s="102"/>
       <c r="D27" s="102" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="E27" s="102" t="s">
-        <v>710</v>
-      </c>
-      <c r="F27" s="120" t="s">
-        <v>711</v>
-      </c>
-      <c r="G27" s="103"/>
-      <c r="H27" s="104"/>
-      <c r="I27" s="104"/>
-      <c r="J27" s="104"/>
-      <c r="K27" s="103"/>
-      <c r="L27" s="103"/>
+        <v>716</v>
+      </c>
+      <c r="F27" s="132" t="s">
+        <v>717</v>
+      </c>
+      <c r="G27" s="126">
+        <v>2.0</v>
+      </c>
+      <c r="H27" s="109"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="109"/>
+      <c r="K27" s="127" t="s">
+        <v>718</v>
+      </c>
+      <c r="L27" s="108"/>
       <c r="M27" s="102" t="s">
-        <v>712</v>
-      </c>
-      <c r="N27" s="104"/>
+        <v>719</v>
+      </c>
+      <c r="N27" s="109"/>
       <c r="O27" s="102"/>
-      <c r="P27" s="104"/>
+      <c r="P27" s="109"/>
     </row>
     <row r="28">
-      <c r="A28" s="106" t="s">
+      <c r="A28" s="110" t="s">
         <v>487</v>
       </c>
-      <c r="B28" s="106" t="s">
+      <c r="B28" s="110" t="s">
         <v>420</v>
       </c>
-      <c r="C28" s="106" t="s">
+      <c r="C28" s="110" t="s">
         <v>509</v>
       </c>
-      <c r="D28" s="106" t="s">
+      <c r="D28" s="110" t="s">
         <v>510</v>
       </c>
-      <c r="E28" s="106" t="s">
-        <v>713</v>
-      </c>
-      <c r="F28" s="106" t="s">
+      <c r="E28" s="110" t="s">
+        <v>720</v>
+      </c>
+      <c r="F28" s="110" t="s">
         <v>512</v>
       </c>
-      <c r="G28" s="107">
+      <c r="G28" s="111">
         <v>3.0</v>
       </c>
       <c r="H28" s="94"/>
-      <c r="I28" s="112"/>
-      <c r="J28" s="112"/>
-      <c r="K28" s="103"/>
-      <c r="L28" s="109" t="s">
-        <v>665</v>
-      </c>
-      <c r="M28" s="108" t="s">
-        <v>714</v>
-      </c>
-      <c r="N28" s="103"/>
-      <c r="O28" s="112"/>
-      <c r="P28" s="121"/>
+      <c r="I28" s="119"/>
+      <c r="J28" s="119"/>
+      <c r="K28" s="112" t="s">
+        <v>96</v>
+      </c>
+      <c r="L28" s="130" t="s">
+        <v>663</v>
+      </c>
+      <c r="M28" s="114" t="s">
+        <v>721</v>
+      </c>
+      <c r="N28" s="108"/>
+      <c r="O28" s="119"/>
+      <c r="P28" s="133"/>
     </row>
     <row r="29">
-      <c r="A29" s="106" t="s">
+      <c r="A29" s="110" t="s">
         <v>487</v>
       </c>
-      <c r="B29" s="106" t="s">
+      <c r="B29" s="110" t="s">
         <v>420</v>
       </c>
-      <c r="C29" s="106" t="s">
+      <c r="C29" s="110" t="s">
         <v>518</v>
       </c>
-      <c r="D29" s="118" t="s">
-        <v>715</v>
-      </c>
-      <c r="E29" s="106" t="s">
-        <v>716</v>
-      </c>
-      <c r="F29" s="106" t="s">
+      <c r="D29" s="129" t="s">
+        <v>722</v>
+      </c>
+      <c r="E29" s="110" t="s">
+        <v>723</v>
+      </c>
+      <c r="F29" s="110" t="s">
         <v>555</v>
       </c>
-      <c r="G29" s="107">
+      <c r="G29" s="111">
         <v>4.0</v>
       </c>
       <c r="H29" s="94"/>
-      <c r="I29" s="112"/>
-      <c r="J29" s="112"/>
-      <c r="K29" s="103"/>
-      <c r="L29" s="110" t="s">
-        <v>665</v>
-      </c>
-      <c r="M29" s="117" t="s">
-        <v>717</v>
-      </c>
-      <c r="N29" s="103"/>
-      <c r="O29" s="112"/>
-      <c r="P29" s="122"/>
+      <c r="I29" s="119"/>
+      <c r="J29" s="119"/>
+      <c r="K29" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="L29" s="117" t="s">
+        <v>663</v>
+      </c>
+      <c r="M29" s="128" t="s">
+        <v>724</v>
+      </c>
+      <c r="N29" s="108"/>
+      <c r="O29" s="119"/>
+      <c r="P29" s="134"/>
     </row>
     <row r="30">
-      <c r="A30" s="106" t="s">
+      <c r="A30" s="110" t="s">
         <v>487</v>
       </c>
-      <c r="B30" s="106" t="s">
+      <c r="B30" s="110" t="s">
         <v>420</v>
       </c>
-      <c r="C30" s="106" t="s">
+      <c r="C30" s="110" t="s">
         <v>570</v>
       </c>
-      <c r="D30" s="106" t="s">
+      <c r="D30" s="110" t="s">
         <v>571</v>
       </c>
-      <c r="E30" s="106" t="s">
+      <c r="E30" s="110" t="s">
+        <v>725</v>
+      </c>
+      <c r="F30" s="110" t="s">
+        <v>560</v>
+      </c>
+      <c r="G30" s="111">
+        <v>3.0</v>
+      </c>
+      <c r="H30" s="113" t="s">
+        <v>726</v>
+      </c>
+      <c r="I30" s="119"/>
+      <c r="J30" s="119"/>
+      <c r="K30" s="112" t="s">
+        <v>344</v>
+      </c>
+      <c r="L30" s="117" t="s">
+        <v>663</v>
+      </c>
+      <c r="M30" s="128" t="s">
+        <v>727</v>
+      </c>
+      <c r="N30" s="108"/>
+      <c r="O30" s="119"/>
+      <c r="P30" s="119"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="110" t="s">
+        <v>487</v>
+      </c>
+      <c r="B31" s="110" t="s">
+        <v>420</v>
+      </c>
+      <c r="C31" s="110" t="s">
+        <v>527</v>
+      </c>
+      <c r="D31" s="110" t="s">
+        <v>728</v>
+      </c>
+      <c r="E31" s="110" t="s">
+        <v>729</v>
+      </c>
+      <c r="F31" s="110" t="s">
+        <v>530</v>
+      </c>
+      <c r="G31" s="111">
+        <v>3.0</v>
+      </c>
+      <c r="H31" s="94"/>
+      <c r="I31" s="119"/>
+      <c r="J31" s="119"/>
+      <c r="K31" s="112" t="s">
+        <v>344</v>
+      </c>
+      <c r="L31" s="117" t="s">
+        <v>671</v>
+      </c>
+      <c r="M31" s="114" t="s">
+        <v>730</v>
+      </c>
+      <c r="N31" s="108"/>
+      <c r="O31" s="119"/>
+      <c r="P31" s="119"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="121" t="s">
+        <v>487</v>
+      </c>
+      <c r="B32" s="135" t="s">
+        <v>420</v>
+      </c>
+      <c r="C32" s="122"/>
+      <c r="D32" s="122"/>
+      <c r="E32" s="123" t="s">
+        <v>731</v>
+      </c>
+      <c r="F32" s="122" t="s">
+        <v>422</v>
+      </c>
+      <c r="G32" s="122"/>
+      <c r="H32" s="124" t="s">
+        <v>507</v>
+      </c>
+      <c r="I32" s="122"/>
+      <c r="J32" s="122"/>
+      <c r="K32" s="124" t="s">
+        <v>344</v>
+      </c>
+      <c r="L32" s="122"/>
+      <c r="M32" s="122"/>
+      <c r="N32" s="122"/>
+      <c r="O32" s="122"/>
+      <c r="P32" s="136"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="110" t="s">
+        <v>487</v>
+      </c>
+      <c r="B33" s="110" t="s">
+        <v>699</v>
+      </c>
+      <c r="C33" s="110" t="s">
+        <v>514</v>
+      </c>
+      <c r="D33" s="110" t="s">
+        <v>515</v>
+      </c>
+      <c r="E33" s="110" t="s">
+        <v>732</v>
+      </c>
+      <c r="F33" s="110" t="s">
+        <v>733</v>
+      </c>
+      <c r="G33" s="111">
+        <v>3.0</v>
+      </c>
+      <c r="H33" s="94"/>
+      <c r="I33" s="118"/>
+      <c r="J33" s="127" t="s">
         <v>718</v>
       </c>
-      <c r="F30" s="106" t="s">
+      <c r="K33" s="137" t="s">
+        <v>344</v>
+      </c>
+      <c r="L33" s="108"/>
+      <c r="M33" s="114" t="s">
+        <v>734</v>
+      </c>
+      <c r="N33" s="108"/>
+      <c r="O33" s="119"/>
+      <c r="P33" s="119"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="110" t="s">
+        <v>487</v>
+      </c>
+      <c r="B34" s="110" t="s">
+        <v>699</v>
+      </c>
+      <c r="C34" s="110" t="s">
+        <v>562</v>
+      </c>
+      <c r="D34" s="129" t="s">
+        <v>735</v>
+      </c>
+      <c r="E34" s="110" t="s">
+        <v>736</v>
+      </c>
+      <c r="F34" s="110" t="s">
         <v>560</v>
       </c>
-      <c r="G30" s="107">
+      <c r="G34" s="111">
         <v>3.0</v>
       </c>
-      <c r="H30" s="106" t="s">
-        <v>719</v>
-      </c>
-      <c r="I30" s="112"/>
-      <c r="J30" s="112"/>
-      <c r="K30" s="103"/>
-      <c r="L30" s="110" t="s">
-        <v>665</v>
-      </c>
-      <c r="M30" s="117" t="s">
-        <v>720</v>
-      </c>
-      <c r="N30" s="103"/>
-      <c r="O30" s="112"/>
-      <c r="P30" s="112"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="106" t="s">
+      <c r="H34" s="94"/>
+      <c r="I34" s="118"/>
+      <c r="J34" s="118"/>
+      <c r="K34" s="112" t="s">
+        <v>344</v>
+      </c>
+      <c r="L34" s="117" t="s">
+        <v>695</v>
+      </c>
+      <c r="M34" s="114" t="s">
+        <v>737</v>
+      </c>
+      <c r="N34" s="108"/>
+      <c r="O34" s="119"/>
+      <c r="P34" s="119"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="110" t="s">
         <v>487</v>
       </c>
-      <c r="B31" s="106" t="s">
-        <v>420</v>
-      </c>
-      <c r="C31" s="106" t="s">
-        <v>527</v>
-      </c>
-      <c r="D31" s="106" t="s">
-        <v>721</v>
-      </c>
-      <c r="E31" s="106" t="s">
-        <v>722</v>
-      </c>
-      <c r="F31" s="106" t="s">
-        <v>530</v>
-      </c>
-      <c r="G31" s="107">
+      <c r="B35" s="110" t="s">
+        <v>699</v>
+      </c>
+      <c r="C35" s="110" t="s">
+        <v>537</v>
+      </c>
+      <c r="D35" s="129" t="s">
+        <v>738</v>
+      </c>
+      <c r="E35" s="110" t="s">
+        <v>739</v>
+      </c>
+      <c r="F35" s="110" t="s">
+        <v>436</v>
+      </c>
+      <c r="G35" s="111">
+        <v>2.0</v>
+      </c>
+      <c r="H35" s="94"/>
+      <c r="I35" s="118"/>
+      <c r="J35" s="118"/>
+      <c r="K35" s="112" t="s">
+        <v>344</v>
+      </c>
+      <c r="L35" s="117" t="s">
+        <v>695</v>
+      </c>
+      <c r="M35" s="114" t="s">
+        <v>740</v>
+      </c>
+      <c r="N35" s="108"/>
+      <c r="O35" s="119"/>
+      <c r="P35" s="119"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="121" t="s">
+        <v>487</v>
+      </c>
+      <c r="B36" s="135" t="s">
+        <v>699</v>
+      </c>
+      <c r="C36" s="122"/>
+      <c r="D36" s="122"/>
+      <c r="E36" s="123" t="s">
+        <v>741</v>
+      </c>
+      <c r="F36" s="122" t="s">
+        <v>422</v>
+      </c>
+      <c r="G36" s="122"/>
+      <c r="H36" s="108"/>
+      <c r="I36" s="122"/>
+      <c r="J36" s="122"/>
+      <c r="K36" s="122"/>
+      <c r="L36" s="122"/>
+      <c r="M36" s="122"/>
+      <c r="N36" s="122"/>
+      <c r="O36" s="122"/>
+      <c r="P36" s="138"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="110" t="s">
+        <v>487</v>
+      </c>
+      <c r="B37" s="110" t="s">
+        <v>742</v>
+      </c>
+      <c r="C37" s="110" t="s">
+        <v>499</v>
+      </c>
+      <c r="D37" s="129" t="s">
+        <v>743</v>
+      </c>
+      <c r="E37" s="110" t="s">
+        <v>744</v>
+      </c>
+      <c r="F37" s="110" t="s">
+        <v>454</v>
+      </c>
+      <c r="G37" s="111">
+        <v>2.0</v>
+      </c>
+      <c r="H37" s="94"/>
+      <c r="I37" s="118"/>
+      <c r="J37" s="118"/>
+      <c r="K37" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="L37" s="130" t="s">
+        <v>695</v>
+      </c>
+      <c r="M37" s="114" t="s">
+        <v>745</v>
+      </c>
+      <c r="N37" s="108"/>
+      <c r="O37" s="139"/>
+      <c r="P37" s="140"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="110" t="s">
+        <v>487</v>
+      </c>
+      <c r="B38" s="110" t="s">
+        <v>742</v>
+      </c>
+      <c r="C38" s="110" t="s">
+        <v>552</v>
+      </c>
+      <c r="D38" s="129" t="s">
+        <v>746</v>
+      </c>
+      <c r="E38" s="110" t="s">
+        <v>747</v>
+      </c>
+      <c r="F38" s="110" t="s">
+        <v>555</v>
+      </c>
+      <c r="G38" s="111">
         <v>3.0</v>
       </c>
-      <c r="H31" s="94"/>
-      <c r="I31" s="112"/>
-      <c r="J31" s="112"/>
-      <c r="K31" s="103"/>
-      <c r="L31" s="110" t="s">
-        <v>669</v>
-      </c>
-      <c r="M31" s="108" t="s">
-        <v>723</v>
-      </c>
-      <c r="N31" s="103"/>
-      <c r="O31" s="112"/>
-      <c r="P31" s="112"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="114" t="s">
+      <c r="H38" s="118"/>
+      <c r="I38" s="118"/>
+      <c r="J38" s="118"/>
+      <c r="K38" s="112" t="s">
+        <v>96</v>
+      </c>
+      <c r="L38" s="117" t="s">
+        <v>695</v>
+      </c>
+      <c r="M38" s="114" t="s">
+        <v>748</v>
+      </c>
+      <c r="N38" s="108"/>
+      <c r="O38" s="119"/>
+      <c r="P38" s="119"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="110" t="s">
         <v>487</v>
       </c>
-      <c r="B32" s="123" t="s">
-        <v>420</v>
-      </c>
-      <c r="C32" s="115"/>
-      <c r="D32" s="115"/>
-      <c r="E32" s="116" t="s">
-        <v>724</v>
-      </c>
-      <c r="F32" s="115" t="s">
+      <c r="B39" s="110" t="s">
+        <v>742</v>
+      </c>
+      <c r="C39" s="110" t="s">
+        <v>557</v>
+      </c>
+      <c r="D39" s="110" t="s">
+        <v>558</v>
+      </c>
+      <c r="E39" s="110" t="s">
+        <v>749</v>
+      </c>
+      <c r="F39" s="110" t="s">
+        <v>560</v>
+      </c>
+      <c r="G39" s="111">
+        <v>3.0</v>
+      </c>
+      <c r="H39" s="94"/>
+      <c r="I39" s="118"/>
+      <c r="J39" s="118"/>
+      <c r="K39" s="112" t="s">
+        <v>344</v>
+      </c>
+      <c r="L39" s="117" t="s">
+        <v>663</v>
+      </c>
+      <c r="M39" s="128" t="s">
+        <v>750</v>
+      </c>
+      <c r="N39" s="108"/>
+      <c r="O39" s="119"/>
+      <c r="P39" s="119"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="121" t="s">
+        <v>487</v>
+      </c>
+      <c r="B40" s="121" t="s">
+        <v>742</v>
+      </c>
+      <c r="C40" s="121"/>
+      <c r="D40" s="122"/>
+      <c r="E40" s="141" t="s">
+        <v>751</v>
+      </c>
+      <c r="F40" s="122" t="s">
         <v>422</v>
       </c>
-      <c r="G32" s="115"/>
-      <c r="H32" s="103"/>
-      <c r="I32" s="115"/>
-      <c r="J32" s="115"/>
-      <c r="K32" s="115"/>
-      <c r="L32" s="115"/>
-      <c r="M32" s="115"/>
-      <c r="N32" s="115"/>
-      <c r="O32" s="115"/>
-      <c r="P32" s="124"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="106" t="s">
+      <c r="G40" s="122"/>
+      <c r="H40" s="108"/>
+      <c r="I40" s="122"/>
+      <c r="J40" s="122"/>
+      <c r="K40" s="122"/>
+      <c r="L40" s="122"/>
+      <c r="M40" s="122"/>
+      <c r="N40" s="122"/>
+      <c r="O40" s="121"/>
+      <c r="P40" s="122"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="110" t="s">
         <v>487</v>
       </c>
-      <c r="B33" s="106" t="s">
-        <v>694</v>
-      </c>
-      <c r="C33" s="106" t="s">
-        <v>514</v>
-      </c>
-      <c r="D33" s="106" t="s">
-        <v>515</v>
-      </c>
-      <c r="E33" s="106" t="s">
-        <v>725</v>
-      </c>
-      <c r="F33" s="106" t="s">
-        <v>726</v>
-      </c>
-      <c r="G33" s="107">
+      <c r="B41" s="110" t="s">
+        <v>523</v>
+      </c>
+      <c r="C41" s="110" t="s">
+        <v>522</v>
+      </c>
+      <c r="D41" s="110" t="s">
+        <v>523</v>
+      </c>
+      <c r="E41" s="110" t="s">
+        <v>752</v>
+      </c>
+      <c r="F41" s="110" t="s">
+        <v>560</v>
+      </c>
+      <c r="G41" s="111">
         <v>3.0</v>
       </c>
-      <c r="H33" s="94"/>
-      <c r="I33" s="111"/>
-      <c r="J33" s="111"/>
-      <c r="K33" s="103"/>
-      <c r="L33" s="103"/>
-      <c r="M33" s="108" t="s">
-        <v>727</v>
-      </c>
-      <c r="N33" s="103"/>
-      <c r="O33" s="112"/>
-      <c r="P33" s="112"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="106" t="s">
-        <v>487</v>
-      </c>
-      <c r="B34" s="106" t="s">
-        <v>694</v>
-      </c>
-      <c r="C34" s="106" t="s">
-        <v>562</v>
-      </c>
-      <c r="D34" s="118" t="s">
-        <v>728</v>
-      </c>
-      <c r="E34" s="106" t="s">
-        <v>729</v>
-      </c>
-      <c r="F34" s="106" t="s">
-        <v>560</v>
-      </c>
-      <c r="G34" s="107">
-        <v>3.0</v>
-      </c>
-      <c r="H34" s="94"/>
-      <c r="I34" s="111"/>
-      <c r="J34" s="111"/>
-      <c r="K34" s="103"/>
-      <c r="L34" s="110" t="s">
-        <v>691</v>
-      </c>
-      <c r="M34" s="108" t="s">
-        <v>730</v>
-      </c>
-      <c r="N34" s="103"/>
-      <c r="O34" s="112"/>
-      <c r="P34" s="112"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="106" t="s">
-        <v>487</v>
-      </c>
-      <c r="B35" s="106" t="s">
-        <v>694</v>
-      </c>
-      <c r="C35" s="106" t="s">
-        <v>537</v>
-      </c>
-      <c r="D35" s="118" t="s">
-        <v>731</v>
-      </c>
-      <c r="E35" s="106" t="s">
-        <v>732</v>
-      </c>
-      <c r="F35" s="106" t="s">
-        <v>436</v>
-      </c>
-      <c r="G35" s="107">
-        <v>2.0</v>
-      </c>
-      <c r="H35" s="94"/>
-      <c r="I35" s="111"/>
-      <c r="J35" s="111"/>
-      <c r="K35" s="103"/>
-      <c r="L35" s="110" t="s">
-        <v>691</v>
-      </c>
-      <c r="M35" s="108" t="s">
-        <v>733</v>
-      </c>
-      <c r="N35" s="103"/>
-      <c r="O35" s="112"/>
-      <c r="P35" s="112"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="114" t="s">
-        <v>487</v>
-      </c>
-      <c r="B36" s="123" t="s">
-        <v>694</v>
-      </c>
-      <c r="C36" s="115"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="116" t="s">
-        <v>734</v>
-      </c>
-      <c r="F36" s="115" t="s">
-        <v>422</v>
-      </c>
-      <c r="G36" s="115"/>
-      <c r="H36" s="103"/>
-      <c r="I36" s="115"/>
-      <c r="J36" s="115"/>
-      <c r="K36" s="115"/>
-      <c r="L36" s="115"/>
-      <c r="M36" s="115"/>
-      <c r="N36" s="115"/>
-      <c r="O36" s="115"/>
-      <c r="P36" s="125"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="106" t="s">
-        <v>487</v>
-      </c>
-      <c r="B37" s="106" t="s">
-        <v>735</v>
-      </c>
-      <c r="C37" s="106" t="s">
-        <v>499</v>
-      </c>
-      <c r="D37" s="118" t="s">
-        <v>736</v>
-      </c>
-      <c r="E37" s="106" t="s">
-        <v>737</v>
-      </c>
-      <c r="F37" s="106" t="s">
-        <v>454</v>
-      </c>
-      <c r="G37" s="107">
-        <v>2.0</v>
-      </c>
-      <c r="H37" s="94"/>
-      <c r="I37" s="111"/>
-      <c r="J37" s="111"/>
-      <c r="K37" s="103"/>
-      <c r="L37" s="109" t="s">
-        <v>691</v>
-      </c>
-      <c r="M37" s="108" t="s">
-        <v>738</v>
-      </c>
-      <c r="N37" s="103"/>
-      <c r="O37" s="126"/>
-      <c r="P37" s="127"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="106" t="s">
-        <v>487</v>
-      </c>
-      <c r="B38" s="106" t="s">
-        <v>735</v>
-      </c>
-      <c r="C38" s="106" t="s">
-        <v>552</v>
-      </c>
-      <c r="D38" s="118" t="s">
-        <v>739</v>
-      </c>
-      <c r="E38" s="106" t="s">
-        <v>740</v>
-      </c>
-      <c r="F38" s="106" t="s">
-        <v>555</v>
-      </c>
-      <c r="G38" s="107">
-        <v>3.0</v>
-      </c>
-      <c r="H38" s="111"/>
-      <c r="I38" s="111"/>
-      <c r="J38" s="111"/>
-      <c r="K38" s="103"/>
-      <c r="L38" s="110" t="s">
-        <v>691</v>
-      </c>
-      <c r="M38" s="108" t="s">
-        <v>741</v>
-      </c>
-      <c r="N38" s="103"/>
-      <c r="O38" s="112"/>
-      <c r="P38" s="112"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="106" t="s">
-        <v>487</v>
-      </c>
-      <c r="B39" s="106" t="s">
-        <v>735</v>
-      </c>
-      <c r="C39" s="106" t="s">
-        <v>557</v>
-      </c>
-      <c r="D39" s="106" t="s">
-        <v>558</v>
-      </c>
-      <c r="E39" s="106" t="s">
-        <v>742</v>
-      </c>
-      <c r="F39" s="106" t="s">
-        <v>560</v>
-      </c>
-      <c r="G39" s="107">
-        <v>3.0</v>
-      </c>
-      <c r="H39" s="94"/>
-      <c r="I39" s="111"/>
-      <c r="J39" s="111"/>
-      <c r="K39" s="103"/>
-      <c r="L39" s="110" t="s">
-        <v>665</v>
-      </c>
-      <c r="M39" s="117" t="s">
-        <v>743</v>
-      </c>
-      <c r="N39" s="103"/>
-      <c r="O39" s="112"/>
-      <c r="P39" s="112"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="114" t="s">
-        <v>487</v>
-      </c>
-      <c r="B40" s="114" t="s">
-        <v>735</v>
-      </c>
-      <c r="C40" s="114"/>
-      <c r="D40" s="115"/>
-      <c r="E40" s="128" t="s">
-        <v>744</v>
-      </c>
-      <c r="F40" s="115" t="s">
-        <v>422</v>
-      </c>
-      <c r="G40" s="115"/>
-      <c r="H40" s="103"/>
-      <c r="I40" s="115"/>
-      <c r="J40" s="115"/>
-      <c r="K40" s="114"/>
-      <c r="L40" s="115"/>
-      <c r="M40" s="115"/>
-      <c r="N40" s="115"/>
-      <c r="O40" s="114"/>
-      <c r="P40" s="115"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="106" t="s">
-        <v>487</v>
-      </c>
-      <c r="B41" s="106" t="s">
-        <v>523</v>
-      </c>
-      <c r="C41" s="106" t="s">
-        <v>522</v>
-      </c>
-      <c r="D41" s="106" t="s">
-        <v>523</v>
-      </c>
-      <c r="E41" s="106" t="s">
-        <v>745</v>
-      </c>
-      <c r="F41" s="106" t="s">
-        <v>560</v>
-      </c>
-      <c r="G41" s="107">
-        <v>3.0</v>
-      </c>
       <c r="H41" s="94"/>
-      <c r="I41" s="111"/>
-      <c r="J41" s="111"/>
-      <c r="K41" s="103"/>
-      <c r="L41" s="110" t="s">
-        <v>691</v>
-      </c>
-      <c r="M41" s="108" t="s">
-        <v>746</v>
-      </c>
-      <c r="N41" s="103"/>
-      <c r="O41" s="112"/>
+      <c r="I41" s="118"/>
+      <c r="J41" s="118"/>
+      <c r="K41" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="L41" s="117" t="s">
+        <v>695</v>
+      </c>
+      <c r="M41" s="114" t="s">
+        <v>753</v>
+      </c>
+      <c r="N41" s="108"/>
+      <c r="O41" s="119"/>
       <c r="P41" s="90" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="114" t="s">
+      <c r="A42" s="121" t="s">
         <v>487</v>
       </c>
-      <c r="B42" s="114" t="s">
+      <c r="B42" s="121" t="s">
         <v>523</v>
       </c>
-      <c r="C42" s="114"/>
-      <c r="D42" s="115"/>
-      <c r="E42" s="116" t="s">
-        <v>747</v>
-      </c>
-      <c r="F42" s="115" t="s">
+      <c r="C42" s="121"/>
+      <c r="D42" s="122"/>
+      <c r="E42" s="123" t="s">
+        <v>754</v>
+      </c>
+      <c r="F42" s="122" t="s">
         <v>422</v>
       </c>
-      <c r="G42" s="115"/>
-      <c r="H42" s="103"/>
-      <c r="I42" s="115"/>
-      <c r="J42" s="115"/>
-      <c r="K42" s="114"/>
-      <c r="L42" s="115"/>
-      <c r="M42" s="115"/>
-      <c r="N42" s="115"/>
-      <c r="O42" s="114"/>
-      <c r="P42" s="115"/>
+      <c r="G42" s="122"/>
+      <c r="H42" s="108"/>
+      <c r="I42" s="122"/>
+      <c r="J42" s="122"/>
+      <c r="K42" s="122"/>
+      <c r="L42" s="122"/>
+      <c r="M42" s="122"/>
+      <c r="N42" s="122"/>
+      <c r="O42" s="121"/>
+      <c r="P42" s="122"/>
     </row>
     <row r="43">
-      <c r="A43" s="106" t="s">
+      <c r="A43" s="110" t="s">
         <v>577</v>
       </c>
-      <c r="B43" s="106" t="s">
+      <c r="B43" s="110" t="s">
         <v>420</v>
       </c>
-      <c r="C43" s="106" t="s">
+      <c r="C43" s="110" t="s">
         <v>631</v>
       </c>
-      <c r="D43" s="106" t="s">
+      <c r="D43" s="110" t="s">
         <v>632</v>
       </c>
-      <c r="E43" s="106" t="s">
-        <v>748</v>
-      </c>
-      <c r="F43" s="106" t="s">
+      <c r="E43" s="110" t="s">
+        <v>755</v>
+      </c>
+      <c r="F43" s="110" t="s">
         <v>634</v>
       </c>
-      <c r="G43" s="107">
+      <c r="G43" s="111">
         <v>3.0</v>
       </c>
       <c r="H43" s="94"/>
-      <c r="I43" s="111"/>
-      <c r="J43" s="111"/>
-      <c r="K43" s="103"/>
-      <c r="L43" s="110" t="s">
-        <v>665</v>
-      </c>
-      <c r="M43" s="108" t="s">
-        <v>749</v>
-      </c>
-      <c r="N43" s="103"/>
-      <c r="O43" s="112"/>
-      <c r="P43" s="119" t="s">
+      <c r="I43" s="118"/>
+      <c r="J43" s="118"/>
+      <c r="K43" s="112" t="s">
+        <v>96</v>
+      </c>
+      <c r="L43" s="117" t="s">
+        <v>663</v>
+      </c>
+      <c r="M43" s="114" t="s">
+        <v>756</v>
+      </c>
+      <c r="N43" s="108"/>
+      <c r="O43" s="119"/>
+      <c r="P43" s="131" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="114" t="s">
+      <c r="A44" s="121" t="s">
         <v>577</v>
       </c>
-      <c r="B44" s="114" t="s">
+      <c r="B44" s="121" t="s">
         <v>420</v>
       </c>
-      <c r="C44" s="114"/>
-      <c r="D44" s="115"/>
-      <c r="E44" s="116" t="s">
-        <v>750</v>
-      </c>
-      <c r="F44" s="115" t="s">
+      <c r="C44" s="121"/>
+      <c r="D44" s="122"/>
+      <c r="E44" s="123" t="s">
+        <v>757</v>
+      </c>
+      <c r="F44" s="122" t="s">
         <v>422</v>
       </c>
-      <c r="G44" s="115"/>
-      <c r="H44" s="103"/>
-      <c r="I44" s="115"/>
-      <c r="J44" s="115"/>
-      <c r="K44" s="114"/>
-      <c r="L44" s="115"/>
-      <c r="M44" s="115"/>
-      <c r="N44" s="115"/>
-      <c r="O44" s="114"/>
-      <c r="P44" s="115"/>
+      <c r="G44" s="122"/>
+      <c r="H44" s="108"/>
+      <c r="I44" s="122"/>
+      <c r="J44" s="122"/>
+      <c r="K44" s="122"/>
+      <c r="L44" s="122"/>
+      <c r="M44" s="122"/>
+      <c r="N44" s="122"/>
+      <c r="O44" s="121"/>
+      <c r="P44" s="122"/>
     </row>
     <row r="45">
-      <c r="A45" s="106" t="s">
+      <c r="A45" s="110" t="s">
         <v>577</v>
       </c>
-      <c r="B45" s="106" t="s">
-        <v>694</v>
-      </c>
-      <c r="C45" s="106" t="s">
+      <c r="B45" s="110" t="s">
+        <v>699</v>
+      </c>
+      <c r="C45" s="110" t="s">
         <v>599</v>
       </c>
-      <c r="D45" s="106" t="s">
+      <c r="D45" s="110" t="s">
         <v>600</v>
       </c>
-      <c r="E45" s="106" t="s">
-        <v>751</v>
-      </c>
-      <c r="F45" s="106" t="s">
+      <c r="E45" s="110" t="s">
+        <v>758</v>
+      </c>
+      <c r="F45" s="110" t="s">
         <v>602</v>
       </c>
-      <c r="G45" s="107">
+      <c r="G45" s="111">
         <v>4.0</v>
       </c>
       <c r="H45" s="94"/>
-      <c r="I45" s="111"/>
-      <c r="J45" s="111"/>
-      <c r="K45" s="103"/>
-      <c r="L45" s="129" t="s">
-        <v>665</v>
-      </c>
-      <c r="M45" s="117" t="s">
-        <v>752</v>
-      </c>
-      <c r="N45" s="103"/>
-      <c r="O45" s="112"/>
-      <c r="P45" s="119" t="s">
+      <c r="I45" s="118"/>
+      <c r="J45" s="118"/>
+      <c r="K45" s="112" t="s">
+        <v>96</v>
+      </c>
+      <c r="L45" s="142" t="s">
+        <v>663</v>
+      </c>
+      <c r="M45" s="128" t="s">
+        <v>759</v>
+      </c>
+      <c r="N45" s="108"/>
+      <c r="O45" s="119"/>
+      <c r="P45" s="131" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="106" t="s">
+      <c r="A46" s="110" t="s">
         <v>577</v>
       </c>
-      <c r="B46" s="106" t="s">
-        <v>694</v>
-      </c>
-      <c r="C46" s="106" t="s">
+      <c r="B46" s="110" t="s">
+        <v>699</v>
+      </c>
+      <c r="C46" s="110" t="s">
         <v>589</v>
       </c>
-      <c r="D46" s="106" t="s">
+      <c r="D46" s="110" t="s">
         <v>590</v>
       </c>
-      <c r="E46" s="106" t="s">
-        <v>753</v>
-      </c>
-      <c r="F46" s="106" t="s">
+      <c r="E46" s="110" t="s">
+        <v>760</v>
+      </c>
+      <c r="F46" s="110" t="s">
         <v>592</v>
       </c>
-      <c r="G46" s="107">
+      <c r="G46" s="111">
         <v>3.0</v>
       </c>
       <c r="H46" s="94"/>
-      <c r="I46" s="111"/>
-      <c r="J46" s="111"/>
-      <c r="K46" s="103"/>
-      <c r="L46" s="129" t="s">
-        <v>691</v>
-      </c>
-      <c r="M46" s="106" t="s">
-        <v>754</v>
-      </c>
-      <c r="N46" s="103"/>
-      <c r="O46" s="112"/>
+      <c r="I46" s="118"/>
+      <c r="J46" s="118"/>
+      <c r="K46" s="112" t="s">
+        <v>351</v>
+      </c>
+      <c r="L46" s="142" t="s">
+        <v>695</v>
+      </c>
+      <c r="M46" s="110" t="s">
+        <v>761</v>
+      </c>
+      <c r="N46" s="108"/>
+      <c r="O46" s="119"/>
       <c r="P46" s="90" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="106" t="s">
+      <c r="A47" s="110" t="s">
         <v>577</v>
       </c>
-      <c r="B47" s="106" t="s">
-        <v>694</v>
-      </c>
-      <c r="C47" s="106" t="s">
+      <c r="B47" s="110" t="s">
+        <v>699</v>
+      </c>
+      <c r="C47" s="110" t="s">
         <v>579</v>
       </c>
-      <c r="D47" s="106" t="s">
+      <c r="D47" s="110" t="s">
         <v>580</v>
       </c>
-      <c r="E47" s="106" t="s">
-        <v>755</v>
-      </c>
-      <c r="F47" s="106" t="s">
+      <c r="E47" s="110" t="s">
+        <v>762</v>
+      </c>
+      <c r="F47" s="110" t="s">
         <v>582</v>
       </c>
-      <c r="G47" s="107">
+      <c r="G47" s="111">
         <v>4.0</v>
       </c>
       <c r="H47" s="94"/>
-      <c r="I47" s="111"/>
-      <c r="J47" s="111"/>
-      <c r="K47" s="103"/>
-      <c r="L47" s="129" t="s">
-        <v>665</v>
-      </c>
-      <c r="M47" s="108" t="s">
-        <v>756</v>
-      </c>
-      <c r="N47" s="103"/>
-      <c r="O47" s="112"/>
-      <c r="P47" s="112"/>
+      <c r="I47" s="118"/>
+      <c r="J47" s="118"/>
+      <c r="K47" s="112" t="s">
+        <v>96</v>
+      </c>
+      <c r="L47" s="142" t="s">
+        <v>663</v>
+      </c>
+      <c r="M47" s="114" t="s">
+        <v>763</v>
+      </c>
+      <c r="N47" s="108"/>
+      <c r="O47" s="119"/>
+      <c r="P47" s="119"/>
     </row>
     <row r="48">
-      <c r="A48" s="106" t="s">
+      <c r="A48" s="110" t="s">
         <v>577</v>
       </c>
-      <c r="B48" s="106" t="s">
-        <v>694</v>
-      </c>
-      <c r="C48" s="106" t="s">
+      <c r="B48" s="110" t="s">
+        <v>699</v>
+      </c>
+      <c r="C48" s="110" t="s">
         <v>605</v>
       </c>
-      <c r="D48" s="106" t="s">
+      <c r="D48" s="110" t="s">
         <v>606</v>
       </c>
-      <c r="E48" s="106" t="s">
-        <v>757</v>
-      </c>
-      <c r="F48" s="106" t="s">
+      <c r="E48" s="110" t="s">
+        <v>764</v>
+      </c>
+      <c r="F48" s="110" t="s">
         <v>608</v>
       </c>
-      <c r="G48" s="107">
+      <c r="G48" s="111">
         <v>4.0</v>
       </c>
       <c r="H48" s="94"/>
-      <c r="I48" s="111"/>
-      <c r="J48" s="111"/>
-      <c r="K48" s="103"/>
-      <c r="L48" s="129" t="s">
-        <v>691</v>
-      </c>
-      <c r="M48" s="108" t="s">
-        <v>758</v>
-      </c>
-      <c r="N48" s="103"/>
-      <c r="O48" s="112"/>
-      <c r="P48" s="130"/>
+      <c r="I48" s="118"/>
+      <c r="J48" s="118"/>
+      <c r="K48" s="112" t="s">
+        <v>96</v>
+      </c>
+      <c r="L48" s="142" t="s">
+        <v>663</v>
+      </c>
+      <c r="M48" s="114" t="s">
+        <v>765</v>
+      </c>
+      <c r="N48" s="108"/>
+      <c r="O48" s="119"/>
+      <c r="P48" s="143"/>
     </row>
     <row r="49">
-      <c r="A49" s="106" t="s">
+      <c r="A49" s="110" t="s">
         <v>577</v>
       </c>
-      <c r="B49" s="106" t="s">
-        <v>694</v>
-      </c>
-      <c r="C49" s="106" t="s">
+      <c r="B49" s="110" t="s">
+        <v>699</v>
+      </c>
+      <c r="C49" s="110" t="s">
         <v>584</v>
       </c>
-      <c r="D49" s="106" t="s">
+      <c r="D49" s="110" t="s">
         <v>585</v>
       </c>
-      <c r="E49" s="106" t="s">
-        <v>759</v>
-      </c>
-      <c r="F49" s="106" t="s">
+      <c r="E49" s="110" t="s">
+        <v>766</v>
+      </c>
+      <c r="F49" s="110" t="s">
         <v>587</v>
       </c>
-      <c r="G49" s="107">
+      <c r="G49" s="111">
         <v>2.0</v>
       </c>
       <c r="H49" s="94"/>
-      <c r="I49" s="111"/>
-      <c r="J49" s="111"/>
-      <c r="K49" s="103"/>
-      <c r="L49" s="129" t="s">
-        <v>665</v>
-      </c>
-      <c r="M49" s="108" t="s">
-        <v>760</v>
-      </c>
-      <c r="N49" s="103"/>
-      <c r="O49" s="112"/>
-      <c r="P49" s="126"/>
+      <c r="I49" s="118"/>
+      <c r="J49" s="118"/>
+      <c r="K49" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="L49" s="142" t="s">
+        <v>663</v>
+      </c>
+      <c r="M49" s="114" t="s">
+        <v>767</v>
+      </c>
+      <c r="N49" s="108"/>
+      <c r="O49" s="119"/>
+      <c r="P49" s="139"/>
     </row>
     <row r="50">
-      <c r="A50" s="106" t="s">
+      <c r="A50" s="110" t="s">
         <v>577</v>
       </c>
-      <c r="B50" s="106" t="s">
-        <v>694</v>
-      </c>
-      <c r="C50" s="106" t="s">
+      <c r="B50" s="110" t="s">
+        <v>699</v>
+      </c>
+      <c r="C50" s="110" t="s">
         <v>610</v>
       </c>
-      <c r="D50" s="106" t="s">
+      <c r="D50" s="110" t="s">
         <v>611</v>
       </c>
-      <c r="E50" s="106" t="s">
-        <v>761</v>
-      </c>
-      <c r="F50" s="106" t="s">
+      <c r="E50" s="110" t="s">
+        <v>768</v>
+      </c>
+      <c r="F50" s="110" t="s">
         <v>613</v>
       </c>
-      <c r="G50" s="107">
+      <c r="G50" s="111">
         <v>3.0</v>
       </c>
       <c r="H50" s="94"/>
-      <c r="I50" s="111"/>
-      <c r="J50" s="111"/>
-      <c r="K50" s="103"/>
-      <c r="L50" s="129" t="s">
-        <v>691</v>
-      </c>
-      <c r="M50" s="113" t="s">
-        <v>762</v>
-      </c>
-      <c r="N50" s="103"/>
-      <c r="O50" s="112"/>
-      <c r="P50" s="119" t="s">
+      <c r="I50" s="118"/>
+      <c r="J50" s="118"/>
+      <c r="K50" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="L50" s="142" t="s">
+        <v>695</v>
+      </c>
+      <c r="M50" s="112" t="s">
+        <v>769</v>
+      </c>
+      <c r="N50" s="108"/>
+      <c r="O50" s="119"/>
+      <c r="P50" s="131" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="106" t="s">
+      <c r="A51" s="110" t="s">
         <v>577</v>
       </c>
-      <c r="B51" s="106" t="s">
-        <v>694</v>
-      </c>
-      <c r="C51" s="106" t="s">
+      <c r="B51" s="110" t="s">
+        <v>699</v>
+      </c>
+      <c r="C51" s="110" t="s">
         <v>616</v>
       </c>
-      <c r="D51" s="118" t="s">
-        <v>763</v>
-      </c>
-      <c r="E51" s="106" t="s">
-        <v>764</v>
-      </c>
-      <c r="F51" s="106" t="s">
+      <c r="D51" s="129" t="s">
+        <v>770</v>
+      </c>
+      <c r="E51" s="110" t="s">
+        <v>771</v>
+      </c>
+      <c r="F51" s="110" t="s">
         <v>619</v>
       </c>
-      <c r="G51" s="107">
+      <c r="G51" s="111">
         <v>3.0</v>
       </c>
       <c r="H51" s="94"/>
-      <c r="I51" s="111"/>
-      <c r="J51" s="111"/>
-      <c r="K51" s="103"/>
-      <c r="L51" s="129" t="s">
-        <v>691</v>
-      </c>
-      <c r="M51" s="108" t="s">
-        <v>765</v>
-      </c>
-      <c r="N51" s="103"/>
-      <c r="O51" s="112"/>
-      <c r="P51" s="119" t="s">
+      <c r="I51" s="118"/>
+      <c r="J51" s="118"/>
+      <c r="K51" s="112" t="s">
+        <v>344</v>
+      </c>
+      <c r="L51" s="142" t="s">
+        <v>695</v>
+      </c>
+      <c r="M51" s="114" t="s">
+        <v>772</v>
+      </c>
+      <c r="N51" s="108"/>
+      <c r="O51" s="119"/>
+      <c r="P51" s="131" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="114" t="s">
+      <c r="A52" s="121" t="s">
         <v>577</v>
       </c>
-      <c r="B52" s="114" t="s">
-        <v>694</v>
-      </c>
-      <c r="C52" s="114"/>
-      <c r="D52" s="115"/>
-      <c r="E52" s="116" t="s">
-        <v>766</v>
-      </c>
-      <c r="F52" s="115" t="s">
+      <c r="B52" s="121" t="s">
+        <v>699</v>
+      </c>
+      <c r="C52" s="121"/>
+      <c r="D52" s="122"/>
+      <c r="E52" s="123" t="s">
+        <v>773</v>
+      </c>
+      <c r="F52" s="122" t="s">
         <v>422</v>
       </c>
-      <c r="G52" s="115"/>
-      <c r="H52" s="103"/>
-      <c r="I52" s="115"/>
-      <c r="J52" s="115"/>
-      <c r="K52" s="114"/>
-      <c r="L52" s="115"/>
-      <c r="M52" s="115"/>
-      <c r="N52" s="115"/>
-      <c r="O52" s="114"/>
-      <c r="P52" s="115"/>
+      <c r="G52" s="122"/>
+      <c r="H52" s="108"/>
+      <c r="I52" s="122"/>
+      <c r="J52" s="122"/>
+      <c r="K52" s="122"/>
+      <c r="L52" s="122"/>
+      <c r="M52" s="122"/>
+      <c r="N52" s="122"/>
+      <c r="O52" s="121"/>
+      <c r="P52" s="122"/>
     </row>
     <row r="53">
-      <c r="A53" s="106" t="s">
+      <c r="A53" s="110" t="s">
         <v>577</v>
       </c>
-      <c r="B53" s="106" t="s">
-        <v>735</v>
-      </c>
-      <c r="C53" s="106" t="s">
+      <c r="B53" s="110" t="s">
+        <v>742</v>
+      </c>
+      <c r="C53" s="110" t="s">
         <v>625</v>
       </c>
-      <c r="D53" s="106" t="s">
+      <c r="D53" s="110" t="s">
         <v>626</v>
       </c>
-      <c r="E53" s="106" t="s">
-        <v>767</v>
-      </c>
-      <c r="F53" s="106" t="s">
+      <c r="E53" s="110" t="s">
+        <v>774</v>
+      </c>
+      <c r="F53" s="110" t="s">
         <v>628</v>
       </c>
-      <c r="G53" s="107">
+      <c r="G53" s="111">
         <v>4.0</v>
       </c>
       <c r="H53" s="94"/>
-      <c r="I53" s="111"/>
-      <c r="J53" s="111"/>
-      <c r="K53" s="103"/>
-      <c r="L53" s="129" t="s">
-        <v>665</v>
-      </c>
-      <c r="M53" s="108" t="s">
-        <v>768</v>
-      </c>
-      <c r="N53" s="103"/>
-      <c r="O53" s="112"/>
-      <c r="P53" s="119" t="s">
+      <c r="I53" s="118"/>
+      <c r="J53" s="118"/>
+      <c r="K53" s="112" t="s">
+        <v>96</v>
+      </c>
+      <c r="L53" s="142" t="s">
+        <v>663</v>
+      </c>
+      <c r="M53" s="114" t="s">
+        <v>775</v>
+      </c>
+      <c r="N53" s="108"/>
+      <c r="O53" s="119"/>
+      <c r="P53" s="131" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="114" t="s">
+      <c r="A54" s="121" t="s">
         <v>577</v>
       </c>
-      <c r="B54" s="114" t="s">
-        <v>735</v>
-      </c>
-      <c r="C54" s="114"/>
-      <c r="D54" s="115"/>
-      <c r="E54" s="116" t="s">
-        <v>769</v>
-      </c>
-      <c r="F54" s="115" t="s">
+      <c r="B54" s="121" t="s">
+        <v>742</v>
+      </c>
+      <c r="C54" s="121"/>
+      <c r="D54" s="122"/>
+      <c r="E54" s="123" t="s">
+        <v>776</v>
+      </c>
+      <c r="F54" s="122" t="s">
         <v>422</v>
       </c>
-      <c r="G54" s="115"/>
-      <c r="H54" s="103"/>
-      <c r="I54" s="115"/>
-      <c r="J54" s="115"/>
-      <c r="K54" s="114"/>
-      <c r="L54" s="115"/>
-      <c r="M54" s="115"/>
-      <c r="N54" s="115"/>
-      <c r="O54" s="114"/>
-      <c r="P54" s="115"/>
+      <c r="G54" s="122"/>
+      <c r="H54" s="108"/>
+      <c r="I54" s="122"/>
+      <c r="J54" s="122"/>
+      <c r="K54" s="122"/>
+      <c r="L54" s="122"/>
+      <c r="M54" s="122"/>
+      <c r="N54" s="122"/>
+      <c r="O54" s="121"/>
+      <c r="P54" s="122"/>
     </row>
     <row r="55">
-      <c r="A55" s="106" t="s">
+      <c r="A55" s="110" t="s">
         <v>577</v>
       </c>
-      <c r="B55" s="106" t="s">
+      <c r="B55" s="110" t="s">
         <v>523</v>
       </c>
-      <c r="C55" s="106" t="s">
+      <c r="C55" s="110" t="s">
         <v>645</v>
       </c>
-      <c r="D55" s="106" t="s">
+      <c r="D55" s="110" t="s">
         <v>646</v>
       </c>
-      <c r="E55" s="106" t="s">
-        <v>770</v>
-      </c>
-      <c r="F55" s="106" t="s">
+      <c r="E55" s="110" t="s">
+        <v>777</v>
+      </c>
+      <c r="F55" s="110" t="s">
         <v>648</v>
       </c>
-      <c r="G55" s="107">
+      <c r="G55" s="111">
         <v>3.0</v>
       </c>
       <c r="H55" s="94"/>
-      <c r="I55" s="111"/>
-      <c r="J55" s="111"/>
-      <c r="K55" s="103"/>
-      <c r="L55" s="129" t="s">
-        <v>691</v>
-      </c>
-      <c r="M55" s="108" t="s">
-        <v>771</v>
-      </c>
-      <c r="N55" s="103"/>
-      <c r="O55" s="112"/>
-      <c r="P55" s="112"/>
+      <c r="I55" s="118"/>
+      <c r="J55" s="118"/>
+      <c r="K55" s="112" t="s">
+        <v>344</v>
+      </c>
+      <c r="L55" s="142" t="s">
+        <v>695</v>
+      </c>
+      <c r="M55" s="114" t="s">
+        <v>778</v>
+      </c>
+      <c r="N55" s="108"/>
+      <c r="O55" s="119"/>
+      <c r="P55" s="119"/>
     </row>
     <row r="56">
-      <c r="A56" s="114" t="s">
+      <c r="A56" s="121" t="s">
         <v>577</v>
       </c>
-      <c r="B56" s="114" t="s">
+      <c r="B56" s="121" t="s">
         <v>523</v>
       </c>
-      <c r="C56" s="114"/>
-      <c r="D56" s="115"/>
-      <c r="E56" s="116" t="s">
-        <v>772</v>
-      </c>
-      <c r="F56" s="115" t="s">
+      <c r="C56" s="121"/>
+      <c r="D56" s="122"/>
+      <c r="E56" s="123" t="s">
+        <v>779</v>
+      </c>
+      <c r="F56" s="122" t="s">
         <v>422</v>
       </c>
-      <c r="G56" s="115"/>
-      <c r="H56" s="103"/>
-      <c r="I56" s="115"/>
-      <c r="J56" s="115"/>
-      <c r="K56" s="114"/>
-      <c r="L56" s="115"/>
-      <c r="M56" s="115"/>
-      <c r="N56" s="115"/>
-      <c r="O56" s="114"/>
-      <c r="P56" s="115"/>
+      <c r="G56" s="122"/>
+      <c r="H56" s="108"/>
+      <c r="I56" s="122"/>
+      <c r="J56" s="122"/>
+      <c r="K56" s="122"/>
+      <c r="L56" s="122"/>
+      <c r="M56" s="122"/>
+      <c r="N56" s="122"/>
+      <c r="O56" s="121"/>
+      <c r="P56" s="122"/>
     </row>
     <row r="57">
       <c r="E57" s="94"/>
@@ -31125,7 +31296,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="14"/>
@@ -31142,8 +31313,8 @@
       <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="131" t="s">
-        <v>774</v>
+      <c r="B2" s="144" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -31223,7 +31394,7 @@
     <row r="8" ht="96.0" customHeight="1">
       <c r="A8" s="33"/>
       <c r="B8" s="34" t="s">
-        <v>775</v>
+        <v>782</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
@@ -31244,10 +31415,10 @@
         <v>21</v>
       </c>
       <c r="C10" s="51" t="s">
-        <v>776</v>
+        <v>783</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>777</v>
+        <v>784</v>
       </c>
       <c r="E10" s="43" t="s">
         <v>31</v>
@@ -31264,16 +31435,16 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="44" t="s">
-        <v>778</v>
+        <v>785</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>779</v>
+        <v>786</v>
       </c>
       <c r="C11" s="68" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="E11" s="44"/>
       <c r="F11" s="44"/>
@@ -31282,16 +31453,16 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="44" t="s">
-        <v>782</v>
+        <v>789</v>
       </c>
       <c r="B12" s="68" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="C12" s="68" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
       <c r="E12" s="44"/>
       <c r="F12" s="44"/>
@@ -31300,16 +31471,16 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="44" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
       <c r="B13" s="68" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>789</v>
+        <v>796</v>
       </c>
       <c r="E13" s="44"/>
       <c r="F13" s="44"/>
@@ -31318,16 +31489,16 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="44" t="s">
-        <v>790</v>
+        <v>797</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>793</v>
+        <v>800</v>
       </c>
       <c r="E14" s="44"/>
       <c r="F14" s="44"/>
@@ -31336,16 +31507,16 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="44" t="s">
-        <v>794</v>
+        <v>801</v>
       </c>
       <c r="B15" s="68" t="s">
-        <v>795</v>
+        <v>802</v>
       </c>
       <c r="C15" s="68" t="s">
-        <v>796</v>
+        <v>803</v>
       </c>
       <c r="D15" s="49" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="E15" s="44"/>
       <c r="F15" s="44"/>
@@ -31354,16 +31525,16 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="44" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>799</v>
+        <v>806</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>800</v>
+        <v>807</v>
       </c>
       <c r="D16" s="49" t="s">
-        <v>801</v>
+        <v>808</v>
       </c>
       <c r="E16" s="44"/>
       <c r="F16" s="44"/>

--- a/case_study_analysis/make_clean_data/raw/PRIMARY Burden Pacific sardine case study.xlsx
+++ b/case_study_analysis/make_clean_data/raw/PRIMARY Burden Pacific sardine case study.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="807">
   <si>
     <t>Section 0 - Roll Call</t>
   </si>
@@ -5392,9 +5392,6 @@
 </t>
   </si>
   <si>
-    <t>adequate data is available</t>
-  </si>
-  <si>
     <t>high</t>
   </si>
   <si>
@@ -5498,9 +5495,6 @@
     <t>The range of prey items that a population can exploit or the diversity of feeding strategies available.</t>
   </si>
   <si>
-    <t>adequate data are available</t>
-  </si>
-  <si>
     <t>A species with high dietary flexibility is resilient because it can exploit a larger range of resources over time and can opportunistically adapt to fluctuating prey availability (MacNally, 1995). Conversely, specialised species with narrow dietary niches, despite typically displaying specialised prey-capture adaptations and effective competitive and/or feeding strategies, have low resilience if a change in prey abundance or competitive exclusion occurs.</t>
   </si>
   <si>
@@ -5685,9 +5679,6 @@
 4 - High flexibility</t>
   </si>
   <si>
-    <t>expert judgement, high confidence</t>
-  </si>
-  <si>
     <t xml:space="preserve">Flexibility and agility are preconditions for adaptable infrastructure (Chester &amp; Allenby, 2019). Flexible and agile infrastructure is able to withstand and respond to disruptions and meet changing demands (Chester &amp; Allenby, 2019; Hudson et al., 2012). </t>
   </si>
   <si>
@@ -5772,6 +5763,9 @@
 2 - Limited social capital
 3 - Moderate social capital
 4 - High social capital</t>
+  </si>
+  <si>
+    <t>expert judgement, high confidence</t>
   </si>
   <si>
     <t>Social capital, which includes bonding, bridging, and linking social capital, forms the basis for collective action and enables society to function effectively. Strong social capital enables self-organization and can help to facilitate system reorganization (González-Quintero et al., 2019), adopt recommendations, and implement changes (Whitney et al., 2017).</t>
@@ -6523,7 +6517,7 @@
       <name val="Times"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6576,6 +6570,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF93C47D"/>
         <bgColor rgb="FF93C47D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -7021,7 +7021,7 @@
     <xf borderId="18" fillId="9" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="18" fillId="6" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="18" fillId="6" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -7043,9 +7043,6 @@
       <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -7087,9 +7084,6 @@
     <xf borderId="0" fillId="6" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="7" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
@@ -7105,6 +7099,9 @@
     <xf borderId="0" fillId="9" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
+    <xf borderId="0" fillId="10" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf borderId="14" fillId="4" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
@@ -7116,6 +7113,9 @@
     </xf>
     <xf borderId="14" fillId="8" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -25721,13 +25721,13 @@
       <c r="I7" s="104"/>
       <c r="J7" s="104"/>
       <c r="K7" s="105" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" s="106" t="s">
         <v>662</v>
       </c>
-      <c r="L7" s="106" t="s">
+      <c r="M7" s="107" t="s">
         <v>663</v>
-      </c>
-      <c r="M7" s="107" t="s">
-        <v>664</v>
       </c>
       <c r="N7" s="108"/>
       <c r="O7" s="102"/>
@@ -25744,10 +25744,10 @@
         <v>469</v>
       </c>
       <c r="D8" s="110" t="s">
+        <v>664</v>
+      </c>
+      <c r="E8" s="110" t="s">
         <v>665</v>
-      </c>
-      <c r="E8" s="110" t="s">
-        <v>666</v>
       </c>
       <c r="F8" s="110" t="s">
         <v>472</v>
@@ -25761,11 +25761,11 @@
       <c r="K8" s="112" t="s">
         <v>96</v>
       </c>
-      <c r="L8" s="113" t="s">
-        <v>663</v>
-      </c>
-      <c r="M8" s="114" t="s">
-        <v>667</v>
+      <c r="L8" s="105" t="s">
+        <v>662</v>
+      </c>
+      <c r="M8" s="113" t="s">
+        <v>666</v>
       </c>
       <c r="N8" s="108"/>
       <c r="O8" s="110"/>
@@ -25781,35 +25781,35 @@
       <c r="C9" s="110" t="s">
         <v>460</v>
       </c>
-      <c r="D9" s="115" t="s">
+      <c r="D9" s="114" t="s">
         <v>461</v>
       </c>
       <c r="E9" s="110" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F9" s="110" t="s">
         <v>454</v>
       </c>
-      <c r="G9" s="116">
+      <c r="G9" s="115">
         <v>2.0</v>
       </c>
       <c r="H9" s="93"/>
-      <c r="I9" s="117" t="s">
+      <c r="I9" s="116" t="s">
+        <v>668</v>
+      </c>
+      <c r="J9" s="117"/>
+      <c r="K9" s="112" t="s">
         <v>669</v>
       </c>
-      <c r="J9" s="118"/>
-      <c r="K9" s="112" t="s">
+      <c r="L9" s="105" t="s">
         <v>670</v>
       </c>
-      <c r="L9" s="113" t="s">
+      <c r="M9" s="113" t="s">
         <v>671</v>
       </c>
-      <c r="M9" s="114" t="s">
-        <v>672</v>
-      </c>
       <c r="N9" s="108"/>
-      <c r="O9" s="119"/>
-      <c r="P9" s="119"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="118"/>
     </row>
     <row r="10">
       <c r="A10" s="110" t="s">
@@ -25825,59 +25825,59 @@
         <v>457</v>
       </c>
       <c r="E10" s="110" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F10" s="110" t="s">
         <v>454</v>
       </c>
-      <c r="G10" s="120">
+      <c r="G10" s="119">
         <v>2.0</v>
       </c>
       <c r="H10" s="93"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
       <c r="K10" s="112" t="s">
         <v>351</v>
       </c>
-      <c r="L10" s="113" t="s">
-        <v>671</v>
+      <c r="L10" s="105" t="s">
+        <v>670</v>
       </c>
       <c r="M10" s="112" t="s">
+        <v>673</v>
+      </c>
+      <c r="N10" s="108"/>
+      <c r="O10" s="118"/>
+      <c r="P10" s="118"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="120" t="s">
+        <v>400</v>
+      </c>
+      <c r="B11" s="120" t="s">
+        <v>658</v>
+      </c>
+      <c r="C11" s="120"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="122" t="s">
         <v>674</v>
       </c>
-      <c r="N10" s="108"/>
-      <c r="O10" s="119"/>
-      <c r="P10" s="119"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="121" t="s">
-        <v>400</v>
-      </c>
-      <c r="B11" s="121" t="s">
-        <v>658</v>
-      </c>
-      <c r="C11" s="121"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="123" t="s">
+      <c r="F11" s="121" t="s">
+        <v>422</v>
+      </c>
+      <c r="G11" s="121"/>
+      <c r="H11" s="123" t="s">
         <v>675</v>
       </c>
-      <c r="F11" s="122" t="s">
-        <v>422</v>
-      </c>
-      <c r="G11" s="122"/>
-      <c r="H11" s="124" t="s">
-        <v>676</v>
-      </c>
-      <c r="I11" s="122"/>
-      <c r="J11" s="122"/>
-      <c r="K11" s="125" t="s">
+      <c r="I11" s="121"/>
+      <c r="J11" s="121"/>
+      <c r="K11" s="124" t="s">
         <v>198</v>
       </c>
-      <c r="L11" s="122"/>
-      <c r="M11" s="122"/>
-      <c r="N11" s="122"/>
-      <c r="O11" s="121"/>
-      <c r="P11" s="122"/>
+      <c r="L11" s="121"/>
+      <c r="M11" s="121"/>
+      <c r="N11" s="121"/>
+      <c r="O11" s="120"/>
+      <c r="P11" s="121"/>
     </row>
     <row r="12">
       <c r="A12" s="110" t="s">
@@ -25890,32 +25890,32 @@
         <v>442</v>
       </c>
       <c r="D12" s="110" t="s">
+        <v>676</v>
+      </c>
+      <c r="E12" s="110" t="s">
         <v>677</v>
       </c>
-      <c r="E12" s="110" t="s">
-        <v>678</v>
-      </c>
-      <c r="F12" s="115" t="s">
+      <c r="F12" s="114" t="s">
         <v>445</v>
       </c>
       <c r="G12" s="111">
         <v>3.0</v>
       </c>
       <c r="H12" s="94"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="118"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
       <c r="K12" s="112" t="s">
         <v>198</v>
       </c>
-      <c r="L12" s="117" t="s">
-        <v>663</v>
+      <c r="L12" s="116" t="s">
+        <v>662</v>
       </c>
       <c r="M12" s="110" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N12" s="108"/>
-      <c r="O12" s="119"/>
-      <c r="P12" s="119"/>
+      <c r="O12" s="118"/>
+      <c r="P12" s="118"/>
     </row>
     <row r="13">
       <c r="A13" s="110" t="s">
@@ -25928,10 +25928,10 @@
         <v>438</v>
       </c>
       <c r="D13" s="110" t="s">
+        <v>679</v>
+      </c>
+      <c r="E13" s="110" t="s">
         <v>680</v>
-      </c>
-      <c r="E13" s="110" t="s">
-        <v>681</v>
       </c>
       <c r="F13" s="110" t="s">
         <v>405</v>
@@ -25940,20 +25940,20 @@
         <v>3.0</v>
       </c>
       <c r="H13" s="94"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="118"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
       <c r="K13" s="112" t="s">
         <v>96</v>
       </c>
-      <c r="L13" s="117" t="s">
-        <v>663</v>
-      </c>
-      <c r="M13" s="114" t="s">
-        <v>682</v>
+      <c r="L13" s="116" t="s">
+        <v>662</v>
+      </c>
+      <c r="M13" s="113" t="s">
+        <v>681</v>
       </c>
       <c r="N13" s="108"/>
-      <c r="O13" s="119"/>
-      <c r="P13" s="119"/>
+      <c r="O13" s="118"/>
+      <c r="P13" s="118"/>
     </row>
     <row r="14">
       <c r="A14" s="110" t="s">
@@ -25966,10 +25966,10 @@
         <v>402</v>
       </c>
       <c r="D14" s="110" t="s">
+        <v>682</v>
+      </c>
+      <c r="E14" s="110" t="s">
         <v>683</v>
-      </c>
-      <c r="E14" s="110" t="s">
-        <v>684</v>
       </c>
       <c r="F14" s="110" t="s">
         <v>405</v>
@@ -25980,20 +25980,20 @@
       <c r="H14" s="112" t="s">
         <v>406</v>
       </c>
-      <c r="I14" s="118"/>
-      <c r="J14" s="118"/>
-      <c r="K14" s="113" t="s">
+      <c r="I14" s="117"/>
+      <c r="J14" s="117"/>
+      <c r="K14" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="L14" s="113" t="s">
-        <v>663</v>
+      <c r="L14" s="105" t="s">
+        <v>662</v>
       </c>
       <c r="M14" s="110" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="N14" s="108"/>
-      <c r="O14" s="119"/>
-      <c r="P14" s="119"/>
+      <c r="O14" s="118"/>
+      <c r="P14" s="118"/>
     </row>
     <row r="15">
       <c r="A15" s="102" t="s">
@@ -26004,28 +26004,28 @@
       </c>
       <c r="C15" s="102"/>
       <c r="D15" s="102" t="s">
+        <v>685</v>
+      </c>
+      <c r="E15" s="102" t="s">
         <v>686</v>
-      </c>
-      <c r="E15" s="102" t="s">
-        <v>687</v>
       </c>
       <c r="F15" s="109" t="s">
         <v>454</v>
       </c>
-      <c r="G15" s="126">
+      <c r="G15" s="125">
         <v>2.0</v>
       </c>
       <c r="H15" s="109"/>
       <c r="I15" s="109"/>
       <c r="J15" s="109"/>
-      <c r="K15" s="127" t="s">
-        <v>688</v>
+      <c r="K15" s="105" t="s">
+        <v>96</v>
       </c>
       <c r="L15" s="108" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M15" s="102" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="N15" s="109"/>
       <c r="O15" s="102"/>
@@ -26045,29 +26045,29 @@
         <v>452</v>
       </c>
       <c r="E16" s="110" t="s">
-        <v>690</v>
-      </c>
-      <c r="F16" s="115" t="s">
+        <v>688</v>
+      </c>
+      <c r="F16" s="114" t="s">
         <v>454</v>
       </c>
       <c r="G16" s="111">
         <v>2.0</v>
       </c>
-      <c r="H16" s="118"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="118"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="117"/>
       <c r="K16" s="112" t="s">
         <v>351</v>
       </c>
-      <c r="L16" s="117" t="s">
-        <v>671</v>
-      </c>
-      <c r="M16" s="114" t="s">
-        <v>691</v>
+      <c r="L16" s="116" t="s">
+        <v>670</v>
+      </c>
+      <c r="M16" s="113" t="s">
+        <v>689</v>
       </c>
       <c r="N16" s="108"/>
-      <c r="O16" s="119"/>
-      <c r="P16" s="119"/>
+      <c r="O16" s="118"/>
+      <c r="P16" s="118"/>
     </row>
     <row r="17">
       <c r="A17" s="110" t="s">
@@ -26083,29 +26083,29 @@
         <v>410</v>
       </c>
       <c r="E17" s="110" t="s">
-        <v>692</v>
-      </c>
-      <c r="F17" s="115" t="s">
+        <v>690</v>
+      </c>
+      <c r="F17" s="114" t="s">
         <v>405</v>
       </c>
       <c r="G17" s="111">
         <v>2.0</v>
       </c>
-      <c r="H17" s="118"/>
-      <c r="I17" s="118"/>
-      <c r="J17" s="118"/>
-      <c r="K17" s="113" t="s">
+      <c r="H17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="L17" s="113" t="s">
-        <v>671</v>
-      </c>
-      <c r="M17" s="128" t="s">
-        <v>693</v>
+      <c r="L17" s="105" t="s">
+        <v>670</v>
+      </c>
+      <c r="M17" s="126" t="s">
+        <v>691</v>
       </c>
       <c r="N17" s="108"/>
-      <c r="O17" s="119"/>
-      <c r="P17" s="119"/>
+      <c r="O17" s="118"/>
+      <c r="P17" s="118"/>
     </row>
     <row r="18">
       <c r="A18" s="110" t="s">
@@ -26121,75 +26121,75 @@
         <v>415</v>
       </c>
       <c r="E18" s="110" t="s">
-        <v>694</v>
-      </c>
-      <c r="F18" s="115" t="s">
+        <v>692</v>
+      </c>
+      <c r="F18" s="114" t="s">
         <v>405</v>
       </c>
       <c r="G18" s="111">
         <v>3.0</v>
       </c>
-      <c r="H18" s="118"/>
-      <c r="I18" s="118"/>
-      <c r="J18" s="118"/>
-      <c r="K18" s="113" t="s">
+      <c r="H18" s="117"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="L18" s="113" t="s">
+      <c r="L18" s="105" t="s">
+        <v>693</v>
+      </c>
+      <c r="M18" s="113" t="s">
+        <v>694</v>
+      </c>
+      <c r="N18" s="108"/>
+      <c r="O18" s="118"/>
+      <c r="P18" s="118"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="120" t="s">
+        <v>400</v>
+      </c>
+      <c r="B19" s="120" t="s">
+        <v>420</v>
+      </c>
+      <c r="C19" s="120"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="122" t="s">
         <v>695</v>
       </c>
-      <c r="M18" s="114" t="s">
+      <c r="F19" s="121" t="s">
+        <v>422</v>
+      </c>
+      <c r="G19" s="121"/>
+      <c r="H19" s="123" t="s">
         <v>696</v>
       </c>
-      <c r="N18" s="108"/>
-      <c r="O18" s="119"/>
-      <c r="P18" s="119"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="121" t="s">
-        <v>400</v>
-      </c>
-      <c r="B19" s="121" t="s">
-        <v>420</v>
-      </c>
-      <c r="C19" s="121"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="123" t="s">
-        <v>697</v>
-      </c>
-      <c r="F19" s="122" t="s">
-        <v>422</v>
-      </c>
-      <c r="G19" s="122"/>
-      <c r="H19" s="124" t="s">
-        <v>698</v>
-      </c>
-      <c r="I19" s="122"/>
-      <c r="J19" s="122"/>
-      <c r="K19" s="125" t="s">
+      <c r="I19" s="121"/>
+      <c r="J19" s="121"/>
+      <c r="K19" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="L19" s="122"/>
-      <c r="M19" s="122"/>
-      <c r="N19" s="122"/>
-      <c r="O19" s="121"/>
-      <c r="P19" s="122"/>
+      <c r="L19" s="121"/>
+      <c r="M19" s="121"/>
+      <c r="N19" s="121"/>
+      <c r="O19" s="120"/>
+      <c r="P19" s="121"/>
     </row>
     <row r="20">
       <c r="A20" s="110" t="s">
         <v>400</v>
       </c>
       <c r="B20" s="110" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C20" s="110" t="s">
         <v>429</v>
       </c>
-      <c r="D20" s="129" t="s">
-        <v>700</v>
+      <c r="D20" s="127" t="s">
+        <v>698</v>
       </c>
       <c r="E20" s="110" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F20" s="110" t="s">
         <v>427</v>
@@ -26198,36 +26198,36 @@
         <v>4.0</v>
       </c>
       <c r="H20" s="94"/>
-      <c r="I20" s="118"/>
-      <c r="J20" s="118"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="117"/>
       <c r="K20" s="112" t="s">
         <v>198</v>
       </c>
-      <c r="L20" s="117" t="s">
-        <v>663</v>
-      </c>
-      <c r="M20" s="114" t="s">
-        <v>702</v>
+      <c r="L20" s="116" t="s">
+        <v>662</v>
+      </c>
+      <c r="M20" s="113" t="s">
+        <v>700</v>
       </c>
       <c r="N20" s="108"/>
-      <c r="O20" s="119"/>
-      <c r="P20" s="119"/>
+      <c r="O20" s="118"/>
+      <c r="P20" s="118"/>
     </row>
     <row r="21">
       <c r="A21" s="110" t="s">
         <v>400</v>
       </c>
       <c r="B21" s="110" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C21" s="110" t="s">
         <v>433</v>
       </c>
-      <c r="D21" s="129" t="s">
-        <v>703</v>
+      <c r="D21" s="127" t="s">
+        <v>701</v>
       </c>
       <c r="E21" s="110" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="F21" s="110" t="s">
         <v>436</v>
@@ -26236,50 +26236,50 @@
         <v>2.0</v>
       </c>
       <c r="H21" s="94"/>
-      <c r="I21" s="118"/>
-      <c r="J21" s="118"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="117"/>
       <c r="K21" s="112" t="s">
         <v>344</v>
       </c>
-      <c r="L21" s="130" t="s">
-        <v>671</v>
-      </c>
-      <c r="M21" s="114" t="s">
+      <c r="L21" s="128" t="s">
+        <v>670</v>
+      </c>
+      <c r="M21" s="113" t="s">
+        <v>703</v>
+      </c>
+      <c r="N21" s="108"/>
+      <c r="O21" s="118"/>
+      <c r="P21" s="118"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="120" t="s">
+        <v>400</v>
+      </c>
+      <c r="B22" s="120" t="s">
+        <v>697</v>
+      </c>
+      <c r="C22" s="120"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="122" t="s">
+        <v>704</v>
+      </c>
+      <c r="F22" s="121" t="s">
+        <v>422</v>
+      </c>
+      <c r="G22" s="121"/>
+      <c r="H22" s="123" t="s">
         <v>705</v>
       </c>
-      <c r="N21" s="108"/>
-      <c r="O21" s="119"/>
-      <c r="P21" s="119"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="121" t="s">
-        <v>400</v>
-      </c>
-      <c r="B22" s="121" t="s">
-        <v>699</v>
-      </c>
-      <c r="C22" s="121"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="123" t="s">
-        <v>706</v>
-      </c>
-      <c r="F22" s="122" t="s">
-        <v>422</v>
-      </c>
-      <c r="G22" s="122"/>
-      <c r="H22" s="124" t="s">
-        <v>707</v>
-      </c>
-      <c r="I22" s="122"/>
-      <c r="J22" s="122"/>
-      <c r="K22" s="125" t="s">
+      <c r="I22" s="121"/>
+      <c r="J22" s="121"/>
+      <c r="K22" s="124" t="s">
         <v>344</v>
       </c>
-      <c r="L22" s="122"/>
-      <c r="M22" s="122"/>
-      <c r="N22" s="122"/>
-      <c r="O22" s="121"/>
-      <c r="P22" s="122"/>
+      <c r="L22" s="121"/>
+      <c r="M22" s="121"/>
+      <c r="N22" s="121"/>
+      <c r="O22" s="120"/>
+      <c r="P22" s="121"/>
     </row>
     <row r="23">
       <c r="A23" s="110" t="s">
@@ -26295,7 +26295,7 @@
         <v>543</v>
       </c>
       <c r="E23" s="110" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F23" s="110" t="s">
         <v>545</v>
@@ -26304,19 +26304,19 @@
         <v>3.0</v>
       </c>
       <c r="H23" s="94"/>
-      <c r="I23" s="118"/>
-      <c r="J23" s="118"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="117"/>
       <c r="K23" s="112" t="s">
         <v>344</v>
       </c>
-      <c r="L23" s="117" t="s">
-        <v>695</v>
-      </c>
-      <c r="M23" s="128" t="s">
-        <v>709</v>
+      <c r="L23" s="116" t="s">
+        <v>693</v>
+      </c>
+      <c r="M23" s="126" t="s">
+        <v>707</v>
       </c>
       <c r="N23" s="108"/>
-      <c r="O23" s="119"/>
+      <c r="O23" s="118"/>
       <c r="P23" s="90" t="s">
         <v>547</v>
       </c>
@@ -26335,7 +26335,7 @@
         <v>494</v>
       </c>
       <c r="E24" s="110" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="F24" s="110" t="s">
         <v>496</v>
@@ -26344,20 +26344,20 @@
         <v>4.0</v>
       </c>
       <c r="H24" s="94"/>
-      <c r="I24" s="118"/>
-      <c r="J24" s="118"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="117"/>
       <c r="K24" s="112" t="s">
         <v>96</v>
       </c>
-      <c r="L24" s="130" t="s">
-        <v>663</v>
-      </c>
-      <c r="M24" s="114" t="s">
-        <v>711</v>
+      <c r="L24" s="128" t="s">
+        <v>662</v>
+      </c>
+      <c r="M24" s="113" t="s">
+        <v>709</v>
       </c>
       <c r="N24" s="108"/>
-      <c r="O24" s="119"/>
-      <c r="P24" s="131"/>
+      <c r="O24" s="118"/>
+      <c r="P24" s="129"/>
     </row>
     <row r="25">
       <c r="A25" s="110" t="s">
@@ -26373,7 +26373,7 @@
         <v>490</v>
       </c>
       <c r="E25" s="110" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F25" s="110" t="s">
         <v>454</v>
@@ -26382,48 +26382,48 @@
         <v>2.0</v>
       </c>
       <c r="H25" s="94"/>
-      <c r="I25" s="117" t="s">
-        <v>669</v>
-      </c>
-      <c r="J25" s="118"/>
+      <c r="I25" s="116" t="s">
+        <v>668</v>
+      </c>
+      <c r="J25" s="117"/>
       <c r="K25" s="112" t="s">
         <v>198</v>
       </c>
-      <c r="L25" s="117" t="s">
-        <v>671</v>
-      </c>
-      <c r="M25" s="114" t="s">
-        <v>713</v>
+      <c r="L25" s="116" t="s">
+        <v>670</v>
+      </c>
+      <c r="M25" s="113" t="s">
+        <v>711</v>
       </c>
       <c r="N25" s="108"/>
-      <c r="O25" s="119"/>
-      <c r="P25" s="119"/>
+      <c r="O25" s="118"/>
+      <c r="P25" s="118"/>
     </row>
     <row r="26">
-      <c r="A26" s="121" t="s">
+      <c r="A26" s="120" t="s">
         <v>487</v>
       </c>
-      <c r="B26" s="122" t="s">
+      <c r="B26" s="121" t="s">
         <v>658</v>
       </c>
-      <c r="C26" s="122"/>
-      <c r="D26" s="122"/>
-      <c r="E26" s="123" t="s">
-        <v>714</v>
-      </c>
-      <c r="F26" s="122" t="s">
+      <c r="C26" s="121"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="122" t="s">
+        <v>712</v>
+      </c>
+      <c r="F26" s="121" t="s">
         <v>422</v>
       </c>
-      <c r="G26" s="122"/>
+      <c r="G26" s="121"/>
       <c r="H26" s="108"/>
-      <c r="I26" s="122"/>
-      <c r="J26" s="122"/>
-      <c r="K26" s="122"/>
-      <c r="L26" s="122"/>
-      <c r="M26" s="122"/>
-      <c r="N26" s="122"/>
-      <c r="O26" s="122"/>
-      <c r="P26" s="122"/>
+      <c r="I26" s="121"/>
+      <c r="J26" s="121"/>
+      <c r="K26" s="121"/>
+      <c r="L26" s="121"/>
+      <c r="M26" s="121"/>
+      <c r="N26" s="121"/>
+      <c r="O26" s="121"/>
+      <c r="P26" s="121"/>
     </row>
     <row r="27">
       <c r="A27" s="102" t="s">
@@ -26434,26 +26434,26 @@
       </c>
       <c r="C27" s="102"/>
       <c r="D27" s="102" t="s">
+        <v>713</v>
+      </c>
+      <c r="E27" s="102" t="s">
+        <v>714</v>
+      </c>
+      <c r="F27" s="130" t="s">
         <v>715</v>
       </c>
-      <c r="E27" s="102" t="s">
-        <v>716</v>
-      </c>
-      <c r="F27" s="132" t="s">
-        <v>717</v>
-      </c>
-      <c r="G27" s="126">
+      <c r="G27" s="125">
         <v>2.0</v>
       </c>
       <c r="H27" s="109"/>
       <c r="I27" s="109"/>
       <c r="J27" s="109"/>
-      <c r="K27" s="127" t="s">
-        <v>718</v>
-      </c>
-      <c r="L27" s="108"/>
+      <c r="K27" s="107" t="s">
+        <v>344</v>
+      </c>
+      <c r="L27" s="131"/>
       <c r="M27" s="102" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="N27" s="109"/>
       <c r="O27" s="102"/>
@@ -26473,7 +26473,7 @@
         <v>510</v>
       </c>
       <c r="E28" s="110" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="F28" s="110" t="s">
         <v>512</v>
@@ -26482,20 +26482,20 @@
         <v>3.0</v>
       </c>
       <c r="H28" s="94"/>
-      <c r="I28" s="119"/>
-      <c r="J28" s="119"/>
+      <c r="I28" s="118"/>
+      <c r="J28" s="118"/>
       <c r="K28" s="112" t="s">
         <v>96</v>
       </c>
-      <c r="L28" s="130" t="s">
-        <v>663</v>
-      </c>
-      <c r="M28" s="114" t="s">
-        <v>721</v>
+      <c r="L28" s="128" t="s">
+        <v>662</v>
+      </c>
+      <c r="M28" s="113" t="s">
+        <v>718</v>
       </c>
       <c r="N28" s="108"/>
-      <c r="O28" s="119"/>
-      <c r="P28" s="133"/>
+      <c r="O28" s="118"/>
+      <c r="P28" s="132"/>
     </row>
     <row r="29">
       <c r="A29" s="110" t="s">
@@ -26507,11 +26507,11 @@
       <c r="C29" s="110" t="s">
         <v>518</v>
       </c>
-      <c r="D29" s="129" t="s">
-        <v>722</v>
+      <c r="D29" s="127" t="s">
+        <v>719</v>
       </c>
       <c r="E29" s="110" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="F29" s="110" t="s">
         <v>555</v>
@@ -26520,20 +26520,20 @@
         <v>4.0</v>
       </c>
       <c r="H29" s="94"/>
-      <c r="I29" s="119"/>
-      <c r="J29" s="119"/>
+      <c r="I29" s="118"/>
+      <c r="J29" s="118"/>
       <c r="K29" s="112" t="s">
         <v>198</v>
       </c>
-      <c r="L29" s="117" t="s">
-        <v>663</v>
-      </c>
-      <c r="M29" s="128" t="s">
-        <v>724</v>
+      <c r="L29" s="116" t="s">
+        <v>662</v>
+      </c>
+      <c r="M29" s="126" t="s">
+        <v>721</v>
       </c>
       <c r="N29" s="108"/>
-      <c r="O29" s="119"/>
-      <c r="P29" s="134"/>
+      <c r="O29" s="118"/>
+      <c r="P29" s="133"/>
     </row>
     <row r="30">
       <c r="A30" s="110" t="s">
@@ -26549,7 +26549,7 @@
         <v>571</v>
       </c>
       <c r="E30" s="110" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="F30" s="110" t="s">
         <v>560</v>
@@ -26557,23 +26557,23 @@
       <c r="G30" s="111">
         <v>3.0</v>
       </c>
-      <c r="H30" s="113" t="s">
-        <v>726</v>
-      </c>
-      <c r="I30" s="119"/>
-      <c r="J30" s="119"/>
+      <c r="H30" s="105" t="s">
+        <v>723</v>
+      </c>
+      <c r="I30" s="118"/>
+      <c r="J30" s="118"/>
       <c r="K30" s="112" t="s">
         <v>344</v>
       </c>
-      <c r="L30" s="117" t="s">
-        <v>663</v>
-      </c>
-      <c r="M30" s="128" t="s">
-        <v>727</v>
+      <c r="L30" s="116" t="s">
+        <v>662</v>
+      </c>
+      <c r="M30" s="126" t="s">
+        <v>724</v>
       </c>
       <c r="N30" s="108"/>
-      <c r="O30" s="119"/>
-      <c r="P30" s="119"/>
+      <c r="O30" s="118"/>
+      <c r="P30" s="118"/>
     </row>
     <row r="31">
       <c r="A31" s="110" t="s">
@@ -26586,10 +26586,10 @@
         <v>527</v>
       </c>
       <c r="D31" s="110" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E31" s="110" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="F31" s="110" t="s">
         <v>530</v>
@@ -26598,57 +26598,57 @@
         <v>3.0</v>
       </c>
       <c r="H31" s="94"/>
-      <c r="I31" s="119"/>
-      <c r="J31" s="119"/>
+      <c r="I31" s="118"/>
+      <c r="J31" s="118"/>
       <c r="K31" s="112" t="s">
         <v>344</v>
       </c>
-      <c r="L31" s="117" t="s">
-        <v>671</v>
-      </c>
-      <c r="M31" s="114" t="s">
-        <v>730</v>
+      <c r="L31" s="116" t="s">
+        <v>670</v>
+      </c>
+      <c r="M31" s="113" t="s">
+        <v>727</v>
       </c>
       <c r="N31" s="108"/>
-      <c r="O31" s="119"/>
-      <c r="P31" s="119"/>
+      <c r="O31" s="118"/>
+      <c r="P31" s="118"/>
     </row>
     <row r="32">
-      <c r="A32" s="121" t="s">
+      <c r="A32" s="120" t="s">
         <v>487</v>
       </c>
-      <c r="B32" s="135" t="s">
+      <c r="B32" s="134" t="s">
         <v>420</v>
       </c>
-      <c r="C32" s="122"/>
-      <c r="D32" s="122"/>
-      <c r="E32" s="123" t="s">
-        <v>731</v>
-      </c>
-      <c r="F32" s="122" t="s">
+      <c r="C32" s="121"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="122" t="s">
+        <v>728</v>
+      </c>
+      <c r="F32" s="121" t="s">
         <v>422</v>
       </c>
-      <c r="G32" s="122"/>
-      <c r="H32" s="124" t="s">
+      <c r="G32" s="121"/>
+      <c r="H32" s="123" t="s">
         <v>507</v>
       </c>
-      <c r="I32" s="122"/>
-      <c r="J32" s="122"/>
-      <c r="K32" s="124" t="s">
+      <c r="I32" s="121"/>
+      <c r="J32" s="121"/>
+      <c r="K32" s="123" t="s">
         <v>344</v>
       </c>
-      <c r="L32" s="122"/>
-      <c r="M32" s="122"/>
-      <c r="N32" s="122"/>
-      <c r="O32" s="122"/>
-      <c r="P32" s="136"/>
+      <c r="L32" s="121"/>
+      <c r="M32" s="121"/>
+      <c r="N32" s="121"/>
+      <c r="O32" s="121"/>
+      <c r="P32" s="135"/>
     </row>
     <row r="33">
       <c r="A33" s="110" t="s">
         <v>487</v>
       </c>
       <c r="B33" s="110" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C33" s="110" t="s">
         <v>514</v>
@@ -26657,45 +26657,45 @@
         <v>515</v>
       </c>
       <c r="E33" s="110" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="F33" s="110" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="G33" s="111">
         <v>3.0</v>
       </c>
       <c r="H33" s="94"/>
-      <c r="I33" s="118"/>
-      <c r="J33" s="127" t="s">
-        <v>718</v>
+      <c r="I33" s="117"/>
+      <c r="J33" s="136" t="s">
+        <v>731</v>
       </c>
       <c r="K33" s="137" t="s">
         <v>344</v>
       </c>
-      <c r="L33" s="108"/>
-      <c r="M33" s="114" t="s">
-        <v>734</v>
+      <c r="L33" s="131"/>
+      <c r="M33" s="113" t="s">
+        <v>732</v>
       </c>
       <c r="N33" s="108"/>
-      <c r="O33" s="119"/>
-      <c r="P33" s="119"/>
+      <c r="O33" s="118"/>
+      <c r="P33" s="118"/>
     </row>
     <row r="34">
       <c r="A34" s="110" t="s">
         <v>487</v>
       </c>
       <c r="B34" s="110" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C34" s="110" t="s">
         <v>562</v>
       </c>
-      <c r="D34" s="129" t="s">
-        <v>735</v>
+      <c r="D34" s="127" t="s">
+        <v>733</v>
       </c>
       <c r="E34" s="110" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="F34" s="110" t="s">
         <v>560</v>
@@ -26704,36 +26704,36 @@
         <v>3.0</v>
       </c>
       <c r="H34" s="94"/>
-      <c r="I34" s="118"/>
-      <c r="J34" s="118"/>
+      <c r="I34" s="117"/>
+      <c r="J34" s="117"/>
       <c r="K34" s="112" t="s">
         <v>344</v>
       </c>
-      <c r="L34" s="117" t="s">
-        <v>695</v>
-      </c>
-      <c r="M34" s="114" t="s">
-        <v>737</v>
+      <c r="L34" s="116" t="s">
+        <v>693</v>
+      </c>
+      <c r="M34" s="113" t="s">
+        <v>735</v>
       </c>
       <c r="N34" s="108"/>
-      <c r="O34" s="119"/>
-      <c r="P34" s="119"/>
+      <c r="O34" s="118"/>
+      <c r="P34" s="118"/>
     </row>
     <row r="35">
       <c r="A35" s="110" t="s">
         <v>487</v>
       </c>
       <c r="B35" s="110" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C35" s="110" t="s">
         <v>537</v>
       </c>
-      <c r="D35" s="129" t="s">
-        <v>738</v>
+      <c r="D35" s="127" t="s">
+        <v>736</v>
       </c>
       <c r="E35" s="110" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F35" s="110" t="s">
         <v>436</v>
@@ -26742,45 +26742,45 @@
         <v>2.0</v>
       </c>
       <c r="H35" s="94"/>
-      <c r="I35" s="118"/>
-      <c r="J35" s="118"/>
+      <c r="I35" s="117"/>
+      <c r="J35" s="117"/>
       <c r="K35" s="112" t="s">
         <v>344</v>
       </c>
-      <c r="L35" s="117" t="s">
-        <v>695</v>
-      </c>
-      <c r="M35" s="114" t="s">
-        <v>740</v>
+      <c r="L35" s="116" t="s">
+        <v>693</v>
+      </c>
+      <c r="M35" s="113" t="s">
+        <v>738</v>
       </c>
       <c r="N35" s="108"/>
-      <c r="O35" s="119"/>
-      <c r="P35" s="119"/>
+      <c r="O35" s="118"/>
+      <c r="P35" s="118"/>
     </row>
     <row r="36">
-      <c r="A36" s="121" t="s">
+      <c r="A36" s="120" t="s">
         <v>487</v>
       </c>
-      <c r="B36" s="135" t="s">
-        <v>699</v>
-      </c>
-      <c r="C36" s="122"/>
-      <c r="D36" s="122"/>
-      <c r="E36" s="123" t="s">
-        <v>741</v>
-      </c>
-      <c r="F36" s="122" t="s">
+      <c r="B36" s="134" t="s">
+        <v>697</v>
+      </c>
+      <c r="C36" s="121"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="122" t="s">
+        <v>739</v>
+      </c>
+      <c r="F36" s="121" t="s">
         <v>422</v>
       </c>
-      <c r="G36" s="122"/>
+      <c r="G36" s="121"/>
       <c r="H36" s="108"/>
-      <c r="I36" s="122"/>
-      <c r="J36" s="122"/>
-      <c r="K36" s="122"/>
-      <c r="L36" s="122"/>
-      <c r="M36" s="122"/>
-      <c r="N36" s="122"/>
-      <c r="O36" s="122"/>
+      <c r="I36" s="121"/>
+      <c r="J36" s="121"/>
+      <c r="K36" s="121"/>
+      <c r="L36" s="121"/>
+      <c r="M36" s="121"/>
+      <c r="N36" s="121"/>
+      <c r="O36" s="121"/>
       <c r="P36" s="138"/>
     </row>
     <row r="37">
@@ -26788,16 +26788,16 @@
         <v>487</v>
       </c>
       <c r="B37" s="110" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C37" s="110" t="s">
         <v>499</v>
       </c>
-      <c r="D37" s="129" t="s">
-        <v>743</v>
+      <c r="D37" s="127" t="s">
+        <v>741</v>
       </c>
       <c r="E37" s="110" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F37" s="110" t="s">
         <v>454</v>
@@ -26806,16 +26806,16 @@
         <v>2.0</v>
       </c>
       <c r="H37" s="94"/>
-      <c r="I37" s="118"/>
-      <c r="J37" s="118"/>
+      <c r="I37" s="117"/>
+      <c r="J37" s="117"/>
       <c r="K37" s="112" t="s">
         <v>198</v>
       </c>
-      <c r="L37" s="130" t="s">
-        <v>695</v>
-      </c>
-      <c r="M37" s="114" t="s">
-        <v>745</v>
+      <c r="L37" s="128" t="s">
+        <v>693</v>
+      </c>
+      <c r="M37" s="113" t="s">
+        <v>743</v>
       </c>
       <c r="N37" s="108"/>
       <c r="O37" s="139"/>
@@ -26826,16 +26826,16 @@
         <v>487</v>
       </c>
       <c r="B38" s="110" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C38" s="110" t="s">
         <v>552</v>
       </c>
-      <c r="D38" s="129" t="s">
-        <v>746</v>
+      <c r="D38" s="127" t="s">
+        <v>744</v>
       </c>
       <c r="E38" s="110" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F38" s="110" t="s">
         <v>555</v>
@@ -26843,28 +26843,28 @@
       <c r="G38" s="111">
         <v>3.0</v>
       </c>
-      <c r="H38" s="118"/>
-      <c r="I38" s="118"/>
-      <c r="J38" s="118"/>
+      <c r="H38" s="117"/>
+      <c r="I38" s="117"/>
+      <c r="J38" s="117"/>
       <c r="K38" s="112" t="s">
         <v>96</v>
       </c>
-      <c r="L38" s="117" t="s">
-        <v>695</v>
-      </c>
-      <c r="M38" s="114" t="s">
-        <v>748</v>
+      <c r="L38" s="116" t="s">
+        <v>693</v>
+      </c>
+      <c r="M38" s="113" t="s">
+        <v>746</v>
       </c>
       <c r="N38" s="108"/>
-      <c r="O38" s="119"/>
-      <c r="P38" s="119"/>
+      <c r="O38" s="118"/>
+      <c r="P38" s="118"/>
     </row>
     <row r="39">
       <c r="A39" s="110" t="s">
         <v>487</v>
       </c>
       <c r="B39" s="110" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C39" s="110" t="s">
         <v>557</v>
@@ -26873,7 +26873,7 @@
         <v>558</v>
       </c>
       <c r="E39" s="110" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F39" s="110" t="s">
         <v>560</v>
@@ -26882,46 +26882,46 @@
         <v>3.0</v>
       </c>
       <c r="H39" s="94"/>
-      <c r="I39" s="118"/>
-      <c r="J39" s="118"/>
+      <c r="I39" s="117"/>
+      <c r="J39" s="117"/>
       <c r="K39" s="112" t="s">
         <v>344</v>
       </c>
-      <c r="L39" s="117" t="s">
-        <v>663</v>
-      </c>
-      <c r="M39" s="128" t="s">
-        <v>750</v>
+      <c r="L39" s="116" t="s">
+        <v>662</v>
+      </c>
+      <c r="M39" s="126" t="s">
+        <v>748</v>
       </c>
       <c r="N39" s="108"/>
-      <c r="O39" s="119"/>
-      <c r="P39" s="119"/>
+      <c r="O39" s="118"/>
+      <c r="P39" s="118"/>
     </row>
     <row r="40">
-      <c r="A40" s="121" t="s">
+      <c r="A40" s="120" t="s">
         <v>487</v>
       </c>
-      <c r="B40" s="121" t="s">
-        <v>742</v>
-      </c>
-      <c r="C40" s="121"/>
-      <c r="D40" s="122"/>
+      <c r="B40" s="120" t="s">
+        <v>740</v>
+      </c>
+      <c r="C40" s="120"/>
+      <c r="D40" s="121"/>
       <c r="E40" s="141" t="s">
-        <v>751</v>
-      </c>
-      <c r="F40" s="122" t="s">
+        <v>749</v>
+      </c>
+      <c r="F40" s="121" t="s">
         <v>422</v>
       </c>
-      <c r="G40" s="122"/>
+      <c r="G40" s="121"/>
       <c r="H40" s="108"/>
-      <c r="I40" s="122"/>
-      <c r="J40" s="122"/>
-      <c r="K40" s="122"/>
-      <c r="L40" s="122"/>
-      <c r="M40" s="122"/>
-      <c r="N40" s="122"/>
-      <c r="O40" s="121"/>
-      <c r="P40" s="122"/>
+      <c r="I40" s="121"/>
+      <c r="J40" s="121"/>
+      <c r="K40" s="121"/>
+      <c r="L40" s="121"/>
+      <c r="M40" s="121"/>
+      <c r="N40" s="121"/>
+      <c r="O40" s="120"/>
+      <c r="P40" s="121"/>
     </row>
     <row r="41">
       <c r="A41" s="110" t="s">
@@ -26937,7 +26937,7 @@
         <v>523</v>
       </c>
       <c r="E41" s="110" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F41" s="110" t="s">
         <v>560</v>
@@ -26946,48 +26946,48 @@
         <v>3.0</v>
       </c>
       <c r="H41" s="94"/>
-      <c r="I41" s="118"/>
-      <c r="J41" s="118"/>
+      <c r="I41" s="117"/>
+      <c r="J41" s="117"/>
       <c r="K41" s="112" t="s">
         <v>198</v>
       </c>
-      <c r="L41" s="117" t="s">
-        <v>695</v>
-      </c>
-      <c r="M41" s="114" t="s">
-        <v>753</v>
+      <c r="L41" s="116" t="s">
+        <v>693</v>
+      </c>
+      <c r="M41" s="113" t="s">
+        <v>751</v>
       </c>
       <c r="N41" s="108"/>
-      <c r="O41" s="119"/>
+      <c r="O41" s="118"/>
       <c r="P41" s="90" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="121" t="s">
+      <c r="A42" s="120" t="s">
         <v>487</v>
       </c>
-      <c r="B42" s="121" t="s">
+      <c r="B42" s="120" t="s">
         <v>523</v>
       </c>
-      <c r="C42" s="121"/>
-      <c r="D42" s="122"/>
-      <c r="E42" s="123" t="s">
-        <v>754</v>
-      </c>
-      <c r="F42" s="122" t="s">
+      <c r="C42" s="120"/>
+      <c r="D42" s="121"/>
+      <c r="E42" s="122" t="s">
+        <v>752</v>
+      </c>
+      <c r="F42" s="121" t="s">
         <v>422</v>
       </c>
-      <c r="G42" s="122"/>
+      <c r="G42" s="121"/>
       <c r="H42" s="108"/>
-      <c r="I42" s="122"/>
-      <c r="J42" s="122"/>
-      <c r="K42" s="122"/>
-      <c r="L42" s="122"/>
-      <c r="M42" s="122"/>
-      <c r="N42" s="122"/>
-      <c r="O42" s="121"/>
-      <c r="P42" s="122"/>
+      <c r="I42" s="121"/>
+      <c r="J42" s="121"/>
+      <c r="K42" s="121"/>
+      <c r="L42" s="121"/>
+      <c r="M42" s="121"/>
+      <c r="N42" s="121"/>
+      <c r="O42" s="120"/>
+      <c r="P42" s="121"/>
     </row>
     <row r="43">
       <c r="A43" s="110" t="s">
@@ -27003,7 +27003,7 @@
         <v>632</v>
       </c>
       <c r="E43" s="110" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F43" s="110" t="s">
         <v>634</v>
@@ -27012,55 +27012,55 @@
         <v>3.0</v>
       </c>
       <c r="H43" s="94"/>
-      <c r="I43" s="118"/>
-      <c r="J43" s="118"/>
+      <c r="I43" s="117"/>
+      <c r="J43" s="117"/>
       <c r="K43" s="112" t="s">
         <v>96</v>
       </c>
-      <c r="L43" s="117" t="s">
-        <v>663</v>
-      </c>
-      <c r="M43" s="114" t="s">
-        <v>756</v>
+      <c r="L43" s="116" t="s">
+        <v>662</v>
+      </c>
+      <c r="M43" s="113" t="s">
+        <v>754</v>
       </c>
       <c r="N43" s="108"/>
-      <c r="O43" s="119"/>
-      <c r="P43" s="131" t="s">
+      <c r="O43" s="118"/>
+      <c r="P43" s="129" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="121" t="s">
+      <c r="A44" s="120" t="s">
         <v>577</v>
       </c>
-      <c r="B44" s="121" t="s">
+      <c r="B44" s="120" t="s">
         <v>420</v>
       </c>
-      <c r="C44" s="121"/>
-      <c r="D44" s="122"/>
-      <c r="E44" s="123" t="s">
-        <v>757</v>
-      </c>
-      <c r="F44" s="122" t="s">
+      <c r="C44" s="120"/>
+      <c r="D44" s="121"/>
+      <c r="E44" s="122" t="s">
+        <v>755</v>
+      </c>
+      <c r="F44" s="121" t="s">
         <v>422</v>
       </c>
-      <c r="G44" s="122"/>
+      <c r="G44" s="121"/>
       <c r="H44" s="108"/>
-      <c r="I44" s="122"/>
-      <c r="J44" s="122"/>
-      <c r="K44" s="122"/>
-      <c r="L44" s="122"/>
-      <c r="M44" s="122"/>
-      <c r="N44" s="122"/>
-      <c r="O44" s="121"/>
-      <c r="P44" s="122"/>
+      <c r="I44" s="121"/>
+      <c r="J44" s="121"/>
+      <c r="K44" s="121"/>
+      <c r="L44" s="121"/>
+      <c r="M44" s="121"/>
+      <c r="N44" s="121"/>
+      <c r="O44" s="120"/>
+      <c r="P44" s="121"/>
     </row>
     <row r="45">
       <c r="A45" s="110" t="s">
         <v>577</v>
       </c>
       <c r="B45" s="110" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C45" s="110" t="s">
         <v>599</v>
@@ -27069,7 +27069,7 @@
         <v>600</v>
       </c>
       <c r="E45" s="110" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F45" s="110" t="s">
         <v>602</v>
@@ -27078,20 +27078,20 @@
         <v>4.0</v>
       </c>
       <c r="H45" s="94"/>
-      <c r="I45" s="118"/>
-      <c r="J45" s="118"/>
+      <c r="I45" s="117"/>
+      <c r="J45" s="117"/>
       <c r="K45" s="112" t="s">
         <v>96</v>
       </c>
       <c r="L45" s="142" t="s">
-        <v>663</v>
-      </c>
-      <c r="M45" s="128" t="s">
-        <v>759</v>
+        <v>662</v>
+      </c>
+      <c r="M45" s="126" t="s">
+        <v>757</v>
       </c>
       <c r="N45" s="108"/>
-      <c r="O45" s="119"/>
-      <c r="P45" s="131" t="s">
+      <c r="O45" s="118"/>
+      <c r="P45" s="129" t="s">
         <v>604</v>
       </c>
     </row>
@@ -27100,7 +27100,7 @@
         <v>577</v>
       </c>
       <c r="B46" s="110" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C46" s="110" t="s">
         <v>589</v>
@@ -27109,7 +27109,7 @@
         <v>590</v>
       </c>
       <c r="E46" s="110" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F46" s="110" t="s">
         <v>592</v>
@@ -27118,19 +27118,19 @@
         <v>3.0</v>
       </c>
       <c r="H46" s="94"/>
-      <c r="I46" s="118"/>
-      <c r="J46" s="118"/>
+      <c r="I46" s="117"/>
+      <c r="J46" s="117"/>
       <c r="K46" s="112" t="s">
         <v>351</v>
       </c>
       <c r="L46" s="142" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="M46" s="110" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="N46" s="108"/>
-      <c r="O46" s="119"/>
+      <c r="O46" s="118"/>
       <c r="P46" s="90" t="s">
         <v>594</v>
       </c>
@@ -27140,7 +27140,7 @@
         <v>577</v>
       </c>
       <c r="B47" s="110" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C47" s="110" t="s">
         <v>579</v>
@@ -27149,7 +27149,7 @@
         <v>580</v>
       </c>
       <c r="E47" s="110" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F47" s="110" t="s">
         <v>582</v>
@@ -27158,27 +27158,27 @@
         <v>4.0</v>
       </c>
       <c r="H47" s="94"/>
-      <c r="I47" s="118"/>
-      <c r="J47" s="118"/>
+      <c r="I47" s="117"/>
+      <c r="J47" s="117"/>
       <c r="K47" s="112" t="s">
         <v>96</v>
       </c>
       <c r="L47" s="142" t="s">
-        <v>663</v>
-      </c>
-      <c r="M47" s="114" t="s">
-        <v>763</v>
+        <v>662</v>
+      </c>
+      <c r="M47" s="113" t="s">
+        <v>761</v>
       </c>
       <c r="N47" s="108"/>
-      <c r="O47" s="119"/>
-      <c r="P47" s="119"/>
+      <c r="O47" s="118"/>
+      <c r="P47" s="118"/>
     </row>
     <row r="48">
       <c r="A48" s="110" t="s">
         <v>577</v>
       </c>
       <c r="B48" s="110" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C48" s="110" t="s">
         <v>605</v>
@@ -27187,7 +27187,7 @@
         <v>606</v>
       </c>
       <c r="E48" s="110" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F48" s="110" t="s">
         <v>608</v>
@@ -27196,19 +27196,19 @@
         <v>4.0</v>
       </c>
       <c r="H48" s="94"/>
-      <c r="I48" s="118"/>
-      <c r="J48" s="118"/>
+      <c r="I48" s="117"/>
+      <c r="J48" s="117"/>
       <c r="K48" s="112" t="s">
         <v>96</v>
       </c>
       <c r="L48" s="142" t="s">
-        <v>663</v>
-      </c>
-      <c r="M48" s="114" t="s">
-        <v>765</v>
+        <v>662</v>
+      </c>
+      <c r="M48" s="113" t="s">
+        <v>763</v>
       </c>
       <c r="N48" s="108"/>
-      <c r="O48" s="119"/>
+      <c r="O48" s="118"/>
       <c r="P48" s="143"/>
     </row>
     <row r="49">
@@ -27216,7 +27216,7 @@
         <v>577</v>
       </c>
       <c r="B49" s="110" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C49" s="110" t="s">
         <v>584</v>
@@ -27225,7 +27225,7 @@
         <v>585</v>
       </c>
       <c r="E49" s="110" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F49" s="110" t="s">
         <v>587</v>
@@ -27234,19 +27234,19 @@
         <v>2.0</v>
       </c>
       <c r="H49" s="94"/>
-      <c r="I49" s="118"/>
-      <c r="J49" s="118"/>
+      <c r="I49" s="117"/>
+      <c r="J49" s="117"/>
       <c r="K49" s="112" t="s">
         <v>198</v>
       </c>
       <c r="L49" s="142" t="s">
-        <v>663</v>
-      </c>
-      <c r="M49" s="114" t="s">
-        <v>767</v>
+        <v>662</v>
+      </c>
+      <c r="M49" s="113" t="s">
+        <v>765</v>
       </c>
       <c r="N49" s="108"/>
-      <c r="O49" s="119"/>
+      <c r="O49" s="118"/>
       <c r="P49" s="139"/>
     </row>
     <row r="50">
@@ -27254,7 +27254,7 @@
         <v>577</v>
       </c>
       <c r="B50" s="110" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C50" s="110" t="s">
         <v>610</v>
@@ -27263,7 +27263,7 @@
         <v>611</v>
       </c>
       <c r="E50" s="110" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F50" s="110" t="s">
         <v>613</v>
@@ -27272,20 +27272,20 @@
         <v>3.0</v>
       </c>
       <c r="H50" s="94"/>
-      <c r="I50" s="118"/>
-      <c r="J50" s="118"/>
+      <c r="I50" s="117"/>
+      <c r="J50" s="117"/>
       <c r="K50" s="112" t="s">
         <v>198</v>
       </c>
       <c r="L50" s="142" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="M50" s="112" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="N50" s="108"/>
-      <c r="O50" s="119"/>
-      <c r="P50" s="131" t="s">
+      <c r="O50" s="118"/>
+      <c r="P50" s="129" t="s">
         <v>615</v>
       </c>
     </row>
@@ -27294,16 +27294,16 @@
         <v>577</v>
       </c>
       <c r="B51" s="110" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C51" s="110" t="s">
         <v>616</v>
       </c>
-      <c r="D51" s="129" t="s">
-        <v>770</v>
+      <c r="D51" s="127" t="s">
+        <v>768</v>
       </c>
       <c r="E51" s="110" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F51" s="110" t="s">
         <v>619</v>
@@ -27312,55 +27312,55 @@
         <v>3.0</v>
       </c>
       <c r="H51" s="94"/>
-      <c r="I51" s="118"/>
-      <c r="J51" s="118"/>
+      <c r="I51" s="117"/>
+      <c r="J51" s="117"/>
       <c r="K51" s="112" t="s">
         <v>344</v>
       </c>
       <c r="L51" s="142" t="s">
-        <v>695</v>
-      </c>
-      <c r="M51" s="114" t="s">
-        <v>772</v>
+        <v>693</v>
+      </c>
+      <c r="M51" s="113" t="s">
+        <v>770</v>
       </c>
       <c r="N51" s="108"/>
-      <c r="O51" s="119"/>
-      <c r="P51" s="131" t="s">
+      <c r="O51" s="118"/>
+      <c r="P51" s="129" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="121" t="s">
+      <c r="A52" s="120" t="s">
         <v>577</v>
       </c>
-      <c r="B52" s="121" t="s">
-        <v>699</v>
-      </c>
-      <c r="C52" s="121"/>
-      <c r="D52" s="122"/>
-      <c r="E52" s="123" t="s">
-        <v>773</v>
-      </c>
-      <c r="F52" s="122" t="s">
+      <c r="B52" s="120" t="s">
+        <v>697</v>
+      </c>
+      <c r="C52" s="120"/>
+      <c r="D52" s="121"/>
+      <c r="E52" s="122" t="s">
+        <v>771</v>
+      </c>
+      <c r="F52" s="121" t="s">
         <v>422</v>
       </c>
-      <c r="G52" s="122"/>
+      <c r="G52" s="121"/>
       <c r="H52" s="108"/>
-      <c r="I52" s="122"/>
-      <c r="J52" s="122"/>
-      <c r="K52" s="122"/>
-      <c r="L52" s="122"/>
-      <c r="M52" s="122"/>
-      <c r="N52" s="122"/>
-      <c r="O52" s="121"/>
-      <c r="P52" s="122"/>
+      <c r="I52" s="121"/>
+      <c r="J52" s="121"/>
+      <c r="K52" s="121"/>
+      <c r="L52" s="121"/>
+      <c r="M52" s="121"/>
+      <c r="N52" s="121"/>
+      <c r="O52" s="120"/>
+      <c r="P52" s="121"/>
     </row>
     <row r="53">
       <c r="A53" s="110" t="s">
         <v>577</v>
       </c>
       <c r="B53" s="110" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C53" s="110" t="s">
         <v>625</v>
@@ -27369,7 +27369,7 @@
         <v>626</v>
       </c>
       <c r="E53" s="110" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F53" s="110" t="s">
         <v>628</v>
@@ -27378,48 +27378,48 @@
         <v>4.0</v>
       </c>
       <c r="H53" s="94"/>
-      <c r="I53" s="118"/>
-      <c r="J53" s="118"/>
+      <c r="I53" s="117"/>
+      <c r="J53" s="117"/>
       <c r="K53" s="112" t="s">
         <v>96</v>
       </c>
       <c r="L53" s="142" t="s">
-        <v>663</v>
-      </c>
-      <c r="M53" s="114" t="s">
-        <v>775</v>
+        <v>662</v>
+      </c>
+      <c r="M53" s="113" t="s">
+        <v>773</v>
       </c>
       <c r="N53" s="108"/>
-      <c r="O53" s="119"/>
-      <c r="P53" s="131" t="s">
+      <c r="O53" s="118"/>
+      <c r="P53" s="129" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="121" t="s">
+      <c r="A54" s="120" t="s">
         <v>577</v>
       </c>
-      <c r="B54" s="121" t="s">
-        <v>742</v>
-      </c>
-      <c r="C54" s="121"/>
-      <c r="D54" s="122"/>
-      <c r="E54" s="123" t="s">
-        <v>776</v>
-      </c>
-      <c r="F54" s="122" t="s">
+      <c r="B54" s="120" t="s">
+        <v>740</v>
+      </c>
+      <c r="C54" s="120"/>
+      <c r="D54" s="121"/>
+      <c r="E54" s="122" t="s">
+        <v>774</v>
+      </c>
+      <c r="F54" s="121" t="s">
         <v>422</v>
       </c>
-      <c r="G54" s="122"/>
+      <c r="G54" s="121"/>
       <c r="H54" s="108"/>
-      <c r="I54" s="122"/>
-      <c r="J54" s="122"/>
-      <c r="K54" s="122"/>
-      <c r="L54" s="122"/>
-      <c r="M54" s="122"/>
-      <c r="N54" s="122"/>
-      <c r="O54" s="121"/>
-      <c r="P54" s="122"/>
+      <c r="I54" s="121"/>
+      <c r="J54" s="121"/>
+      <c r="K54" s="121"/>
+      <c r="L54" s="121"/>
+      <c r="M54" s="121"/>
+      <c r="N54" s="121"/>
+      <c r="O54" s="120"/>
+      <c r="P54" s="121"/>
     </row>
     <row r="55">
       <c r="A55" s="110" t="s">
@@ -27435,7 +27435,7 @@
         <v>646</v>
       </c>
       <c r="E55" s="110" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F55" s="110" t="s">
         <v>648</v>
@@ -27444,46 +27444,46 @@
         <v>3.0</v>
       </c>
       <c r="H55" s="94"/>
-      <c r="I55" s="118"/>
-      <c r="J55" s="118"/>
+      <c r="I55" s="117"/>
+      <c r="J55" s="117"/>
       <c r="K55" s="112" t="s">
         <v>344</v>
       </c>
       <c r="L55" s="142" t="s">
-        <v>695</v>
-      </c>
-      <c r="M55" s="114" t="s">
-        <v>778</v>
+        <v>693</v>
+      </c>
+      <c r="M55" s="113" t="s">
+        <v>776</v>
       </c>
       <c r="N55" s="108"/>
-      <c r="O55" s="119"/>
-      <c r="P55" s="119"/>
+      <c r="O55" s="118"/>
+      <c r="P55" s="118"/>
     </row>
     <row r="56">
-      <c r="A56" s="121" t="s">
+      <c r="A56" s="120" t="s">
         <v>577</v>
       </c>
-      <c r="B56" s="121" t="s">
+      <c r="B56" s="120" t="s">
         <v>523</v>
       </c>
-      <c r="C56" s="121"/>
-      <c r="D56" s="122"/>
-      <c r="E56" s="123" t="s">
-        <v>779</v>
-      </c>
-      <c r="F56" s="122" t="s">
+      <c r="C56" s="120"/>
+      <c r="D56" s="121"/>
+      <c r="E56" s="122" t="s">
+        <v>777</v>
+      </c>
+      <c r="F56" s="121" t="s">
         <v>422</v>
       </c>
-      <c r="G56" s="122"/>
+      <c r="G56" s="121"/>
       <c r="H56" s="108"/>
-      <c r="I56" s="122"/>
-      <c r="J56" s="122"/>
-      <c r="K56" s="122"/>
-      <c r="L56" s="122"/>
-      <c r="M56" s="122"/>
-      <c r="N56" s="122"/>
-      <c r="O56" s="121"/>
-      <c r="P56" s="122"/>
+      <c r="I56" s="121"/>
+      <c r="J56" s="121"/>
+      <c r="K56" s="121"/>
+      <c r="L56" s="121"/>
+      <c r="M56" s="121"/>
+      <c r="N56" s="121"/>
+      <c r="O56" s="120"/>
+      <c r="P56" s="121"/>
     </row>
     <row r="57">
       <c r="E57" s="94"/>
@@ -31296,7 +31296,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="14"/>
@@ -31314,7 +31314,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="144" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -31394,7 +31394,7 @@
     <row r="8" ht="96.0" customHeight="1">
       <c r="A8" s="33"/>
       <c r="B8" s="34" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
@@ -31415,10 +31415,10 @@
         <v>21</v>
       </c>
       <c r="C10" s="51" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E10" s="43" t="s">
         <v>31</v>
@@ -31435,16 +31435,16 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="44" t="s">
+        <v>783</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>784</v>
+      </c>
+      <c r="C11" s="68" t="s">
         <v>785</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="D11" s="49" t="s">
         <v>786</v>
-      </c>
-      <c r="C11" s="68" t="s">
-        <v>787</v>
-      </c>
-      <c r="D11" s="49" t="s">
-        <v>788</v>
       </c>
       <c r="E11" s="44"/>
       <c r="F11" s="44"/>
@@ -31453,16 +31453,16 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="44" t="s">
+        <v>787</v>
+      </c>
+      <c r="B12" s="68" t="s">
+        <v>788</v>
+      </c>
+      <c r="C12" s="68" t="s">
         <v>789</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="D12" s="49" t="s">
         <v>790</v>
-      </c>
-      <c r="C12" s="68" t="s">
-        <v>791</v>
-      </c>
-      <c r="D12" s="49" t="s">
-        <v>792</v>
       </c>
       <c r="E12" s="44"/>
       <c r="F12" s="44"/>
@@ -31471,16 +31471,16 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="44" t="s">
+        <v>791</v>
+      </c>
+      <c r="B13" s="68" t="s">
+        <v>792</v>
+      </c>
+      <c r="C13" s="44" t="s">
         <v>793</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="D13" s="49" t="s">
         <v>794</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>795</v>
-      </c>
-      <c r="D13" s="49" t="s">
-        <v>796</v>
       </c>
       <c r="E13" s="44"/>
       <c r="F13" s="44"/>
@@ -31489,16 +31489,16 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="44" t="s">
+        <v>795</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>796</v>
+      </c>
+      <c r="C14" s="44" t="s">
         <v>797</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="D14" s="49" t="s">
         <v>798</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>799</v>
-      </c>
-      <c r="D14" s="49" t="s">
-        <v>800</v>
       </c>
       <c r="E14" s="44"/>
       <c r="F14" s="44"/>
@@ -31507,16 +31507,16 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="44" t="s">
+        <v>799</v>
+      </c>
+      <c r="B15" s="68" t="s">
+        <v>800</v>
+      </c>
+      <c r="C15" s="68" t="s">
         <v>801</v>
       </c>
-      <c r="B15" s="68" t="s">
+      <c r="D15" s="49" t="s">
         <v>802</v>
-      </c>
-      <c r="C15" s="68" t="s">
-        <v>803</v>
-      </c>
-      <c r="D15" s="49" t="s">
-        <v>804</v>
       </c>
       <c r="E15" s="44"/>
       <c r="F15" s="44"/>
@@ -31525,16 +31525,16 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="44" t="s">
+        <v>803</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>804</v>
+      </c>
+      <c r="C16" s="44" t="s">
         <v>805</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="D16" s="49" t="s">
         <v>806</v>
-      </c>
-      <c r="C16" s="44" t="s">
-        <v>807</v>
-      </c>
-      <c r="D16" s="49" t="s">
-        <v>808</v>
       </c>
       <c r="E16" s="44"/>
       <c r="F16" s="44"/>

--- a/case_study_analysis/make_clean_data/raw/PRIMARY Burden Pacific sardine case study.xlsx
+++ b/case_study_analysis/make_clean_data/raw/PRIMARY Burden Pacific sardine case study.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="808">
   <si>
     <t>Section 0 - Roll Call</t>
   </si>
@@ -6520,7 +6520,7 @@
       <name val="Times"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6573,12 +6573,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF93C47D"/>
         <bgColor rgb="FF93C47D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -6776,7 +6770,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="145">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -7103,9 +7097,6 @@
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf borderId="14" fillId="4" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -26459,7 +26450,9 @@
       <c r="K27" s="109" t="s">
         <v>344</v>
       </c>
-      <c r="L27" s="132"/>
+      <c r="L27" s="111" t="s">
+        <v>671</v>
+      </c>
       <c r="M27" s="106" t="s">
         <v>717</v>
       </c>
@@ -26503,7 +26496,7 @@
       </c>
       <c r="N28" s="110"/>
       <c r="O28" s="120"/>
-      <c r="P28" s="133"/>
+      <c r="P28" s="132"/>
     </row>
     <row r="29">
       <c r="A29" s="112" t="s">
@@ -26541,7 +26534,7 @@
       </c>
       <c r="N29" s="110"/>
       <c r="O29" s="120"/>
-      <c r="P29" s="134"/>
+      <c r="P29" s="133"/>
     </row>
     <row r="30">
       <c r="A30" s="112" t="s">
@@ -26625,7 +26618,7 @@
       <c r="A32" s="122" t="s">
         <v>487</v>
       </c>
-      <c r="B32" s="135" t="s">
+      <c r="B32" s="134" t="s">
         <v>420</v>
       </c>
       <c r="C32" s="123"/>
@@ -26649,7 +26642,7 @@
       <c r="M32" s="123"/>
       <c r="N32" s="123"/>
       <c r="O32" s="123"/>
-      <c r="P32" s="136"/>
+      <c r="P32" s="135"/>
     </row>
     <row r="33">
       <c r="A33" s="112" t="s">
@@ -26675,13 +26668,15 @@
       </c>
       <c r="H33" s="98"/>
       <c r="I33" s="119"/>
-      <c r="J33" s="137" t="s">
+      <c r="J33" s="136" t="s">
         <v>732</v>
       </c>
-      <c r="K33" s="138" t="s">
+      <c r="K33" s="137" t="s">
         <v>344</v>
       </c>
-      <c r="L33" s="132"/>
+      <c r="L33" s="118" t="s">
+        <v>694</v>
+      </c>
       <c r="M33" s="115" t="s">
         <v>733</v>
       </c>
@@ -26769,7 +26764,7 @@
       <c r="A36" s="122" t="s">
         <v>487</v>
       </c>
-      <c r="B36" s="135" t="s">
+      <c r="B36" s="134" t="s">
         <v>698</v>
       </c>
       <c r="C36" s="123"/>
@@ -26789,7 +26784,7 @@
       <c r="M36" s="123"/>
       <c r="N36" s="123"/>
       <c r="O36" s="123"/>
-      <c r="P36" s="139"/>
+      <c r="P36" s="138"/>
     </row>
     <row r="37">
       <c r="A37" s="112" t="s">
@@ -26826,8 +26821,8 @@
         <v>744</v>
       </c>
       <c r="N37" s="110"/>
-      <c r="O37" s="140"/>
-      <c r="P37" s="141"/>
+      <c r="O37" s="139"/>
+      <c r="P37" s="140"/>
     </row>
     <row r="38">
       <c r="A38" s="112" t="s">
@@ -26914,7 +26909,7 @@
       </c>
       <c r="C40" s="122"/>
       <c r="D40" s="123"/>
-      <c r="E40" s="142" t="s">
+      <c r="E40" s="141" t="s">
         <v>750</v>
       </c>
       <c r="F40" s="123" t="s">
@@ -27091,7 +27086,7 @@
       <c r="K45" s="114" t="s">
         <v>96</v>
       </c>
-      <c r="L45" s="143" t="s">
+      <c r="L45" s="142" t="s">
         <v>663</v>
       </c>
       <c r="M45" s="127" t="s">
@@ -27131,7 +27126,7 @@
       <c r="K46" s="114" t="s">
         <v>351</v>
       </c>
-      <c r="L46" s="143" t="s">
+      <c r="L46" s="142" t="s">
         <v>694</v>
       </c>
       <c r="M46" s="112" t="s">
@@ -27171,7 +27166,7 @@
       <c r="K47" s="114" t="s">
         <v>96</v>
       </c>
-      <c r="L47" s="143" t="s">
+      <c r="L47" s="142" t="s">
         <v>663</v>
       </c>
       <c r="M47" s="115" t="s">
@@ -27209,7 +27204,7 @@
       <c r="K48" s="114" t="s">
         <v>96</v>
       </c>
-      <c r="L48" s="143" t="s">
+      <c r="L48" s="142" t="s">
         <v>663</v>
       </c>
       <c r="M48" s="115" t="s">
@@ -27217,7 +27212,7 @@
       </c>
       <c r="N48" s="110"/>
       <c r="O48" s="120"/>
-      <c r="P48" s="144"/>
+      <c r="P48" s="143"/>
     </row>
     <row r="49">
       <c r="A49" s="112" t="s">
@@ -27247,7 +27242,7 @@
       <c r="K49" s="114" t="s">
         <v>198</v>
       </c>
-      <c r="L49" s="143" t="s">
+      <c r="L49" s="142" t="s">
         <v>663</v>
       </c>
       <c r="M49" s="115" t="s">
@@ -27255,7 +27250,7 @@
       </c>
       <c r="N49" s="110"/>
       <c r="O49" s="120"/>
-      <c r="P49" s="140"/>
+      <c r="P49" s="139"/>
     </row>
     <row r="50">
       <c r="A50" s="112" t="s">
@@ -27285,7 +27280,7 @@
       <c r="K50" s="114" t="s">
         <v>198</v>
       </c>
-      <c r="L50" s="143" t="s">
+      <c r="L50" s="142" t="s">
         <v>694</v>
       </c>
       <c r="M50" s="114" t="s">
@@ -27325,7 +27320,7 @@
       <c r="K51" s="114" t="s">
         <v>344</v>
       </c>
-      <c r="L51" s="143" t="s">
+      <c r="L51" s="142" t="s">
         <v>694</v>
       </c>
       <c r="M51" s="115" t="s">
@@ -27391,7 +27386,7 @@
       <c r="K53" s="114" t="s">
         <v>96</v>
       </c>
-      <c r="L53" s="143" t="s">
+      <c r="L53" s="142" t="s">
         <v>663</v>
       </c>
       <c r="M53" s="115" t="s">
@@ -27457,7 +27452,7 @@
       <c r="K55" s="114" t="s">
         <v>344</v>
       </c>
-      <c r="L55" s="143" t="s">
+      <c r="L55" s="142" t="s">
         <v>694</v>
       </c>
       <c r="M55" s="115" t="s">
@@ -31321,7 +31316,7 @@
       <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="144" t="s">
         <v>780</v>
       </c>
     </row>
